--- a/src/bigdata/static/db/anime_extra.xlsx
+++ b/src/bigdata/static/db/anime_extra.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D291"/>
+  <dimension ref="A1:D310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,13 +460,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C2" t="n">
-        <v>187</v>
+        <v>399</v>
       </c>
       <c r="D2" t="n">
-        <v>8304</v>
+        <v>6571</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>393</v>
+        <v>470</v>
       </c>
       <c r="D3" t="n">
-        <v>8530</v>
+        <v>7562</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>155</v>
+        <v>304</v>
       </c>
       <c r="D4" t="n">
-        <v>2893</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>419</v>
       </c>
       <c r="D5" t="n">
-        <v>8090</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>188</v>
+        <v>327</v>
       </c>
       <c r="D6" t="n">
-        <v>7604</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>85</v>
       </c>
       <c r="B7" t="n">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C7" t="n">
-        <v>460</v>
+        <v>108</v>
       </c>
       <c r="D7" t="n">
-        <v>3143</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>145</v>
       </c>
       <c r="B8" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>288</v>
+        <v>451</v>
       </c>
       <c r="D8" t="n">
-        <v>6549</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>306</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="C9" t="n">
-        <v>211</v>
+        <v>490</v>
       </c>
       <c r="D9" t="n">
-        <v>1995</v>
+        <v>6795</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>307</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="C10" t="n">
-        <v>487</v>
+        <v>180</v>
       </c>
       <c r="D10" t="n">
-        <v>5347</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>728</v>
       </c>
       <c r="B11" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>345</v>
+        <v>498</v>
       </c>
       <c r="D11" t="n">
-        <v>2653</v>
+        <v>7513</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>809</v>
       </c>
       <c r="B12" t="n">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C12" t="n">
-        <v>381</v>
+        <v>492</v>
       </c>
       <c r="D12" t="n">
-        <v>3005</v>
+        <v>7727</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>1555</v>
       </c>
       <c r="B13" t="n">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C13" t="n">
-        <v>333</v>
+        <v>109</v>
       </c>
       <c r="D13" t="n">
-        <v>3983</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>1662</v>
       </c>
       <c r="B14" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D14" t="n">
-        <v>3488</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>1694</v>
       </c>
       <c r="B15" t="n">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C15" t="n">
-        <v>364</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>5831</v>
+        <v>7498</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>1902</v>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="C16" t="n">
-        <v>386</v>
+        <v>56</v>
       </c>
       <c r="D16" t="n">
-        <v>5980</v>
+        <v>6577</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>2007</v>
       </c>
       <c r="B17" t="n">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="D17" t="n">
-        <v>1352</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>2008</v>
       </c>
       <c r="B18" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C18" t="n">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="D18" t="n">
-        <v>9490</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>2009</v>
       </c>
       <c r="B19" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C19" t="n">
-        <v>451</v>
+        <v>229</v>
       </c>
       <c r="D19" t="n">
-        <v>7647</v>
+        <v>7263</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>2011</v>
       </c>
       <c r="B20" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>420</v>
+        <v>120</v>
       </c>
       <c r="D20" t="n">
-        <v>9676</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>2039</v>
       </c>
       <c r="B21" t="n">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="C21" t="n">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="D21" t="n">
-        <v>7458</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>2174</v>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>108</v>
+        <v>443</v>
       </c>
       <c r="D22" t="n">
-        <v>8065</v>
+        <v>9019</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>2405</v>
       </c>
       <c r="B23" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="D23" t="n">
-        <v>5127</v>
+        <v>6949</v>
       </c>
     </row>
     <row r="24">
@@ -768,13 +768,13 @@
         <v>2423</v>
       </c>
       <c r="B24" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C24" t="n">
-        <v>385</v>
+        <v>230</v>
       </c>
       <c r="D24" t="n">
-        <v>2987</v>
+        <v>7885</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +782,13 @@
         <v>2455</v>
       </c>
       <c r="B25" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C25" t="n">
-        <v>198</v>
+        <v>430</v>
       </c>
       <c r="D25" t="n">
-        <v>7282</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>2535</v>
       </c>
       <c r="B26" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="D26" t="n">
-        <v>3614</v>
+        <v>7239</v>
       </c>
     </row>
     <row r="27">
@@ -810,13 +810,13 @@
         <v>2672</v>
       </c>
       <c r="B27" t="n">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>337</v>
+        <v>450</v>
       </c>
       <c r="D27" t="n">
-        <v>3253</v>
+        <v>8016</v>
       </c>
     </row>
     <row r="28">
@@ -824,13 +824,13 @@
         <v>2766</v>
       </c>
       <c r="B28" t="n">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C28" t="n">
-        <v>362</v>
+        <v>193</v>
       </c>
       <c r="D28" t="n">
-        <v>1351</v>
+        <v>5934</v>
       </c>
     </row>
     <row r="29">
@@ -838,13 +838,13 @@
         <v>2767</v>
       </c>
       <c r="B29" t="n">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C29" t="n">
-        <v>289</v>
+        <v>13</v>
       </c>
       <c r="D29" t="n">
-        <v>6187</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="30">
@@ -852,13 +852,13 @@
         <v>2792</v>
       </c>
       <c r="B30" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="D30" t="n">
-        <v>4366</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="31">
@@ -866,13 +866,13 @@
         <v>3052</v>
       </c>
       <c r="B31" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>389</v>
+        <v>499</v>
       </c>
       <c r="D31" t="n">
-        <v>9032</v>
+        <v>9259</v>
       </c>
     </row>
     <row r="32">
@@ -880,13 +880,13 @@
         <v>3150</v>
       </c>
       <c r="B32" t="n">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C32" t="n">
-        <v>146</v>
+        <v>313</v>
       </c>
       <c r="D32" t="n">
-        <v>4712</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33">
@@ -894,13 +894,13 @@
         <v>3178</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C33" t="n">
-        <v>198</v>
+        <v>388</v>
       </c>
       <c r="D33" t="n">
-        <v>4842</v>
+        <v>9749</v>
       </c>
     </row>
     <row r="34">
@@ -908,13 +908,13 @@
         <v>3179</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C34" t="n">
-        <v>447</v>
+        <v>24</v>
       </c>
       <c r="D34" t="n">
-        <v>958</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="35">
@@ -922,13 +922,13 @@
         <v>3180</v>
       </c>
       <c r="B35" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C35" t="n">
-        <v>162</v>
+        <v>302</v>
       </c>
       <c r="D35" t="n">
-        <v>5070</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="36">
@@ -936,13 +936,13 @@
         <v>3428</v>
       </c>
       <c r="B36" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C36" t="n">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="D36" t="n">
-        <v>2245</v>
+        <v>5298</v>
       </c>
     </row>
     <row r="37">
@@ -950,13 +950,13 @@
         <v>3438</v>
       </c>
       <c r="B37" t="n">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C37" t="n">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="D37" t="n">
-        <v>5361</v>
+        <v>7465</v>
       </c>
     </row>
     <row r="38">
@@ -964,13 +964,13 @@
         <v>3495</v>
       </c>
       <c r="B38" t="n">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="C38" t="n">
-        <v>412</v>
+        <v>74</v>
       </c>
       <c r="D38" t="n">
-        <v>5762</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="39">
@@ -978,13 +978,13 @@
         <v>3710</v>
       </c>
       <c r="B39" t="n">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C39" t="n">
-        <v>290</v>
+        <v>404</v>
       </c>
       <c r="D39" t="n">
-        <v>2277</v>
+        <v>6389</v>
       </c>
     </row>
     <row r="40">
@@ -992,13 +992,13 @@
         <v>3735</v>
       </c>
       <c r="B40" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C40" t="n">
-        <v>86</v>
+        <v>471</v>
       </c>
       <c r="D40" t="n">
-        <v>5955</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="41">
@@ -1006,13 +1006,13 @@
         <v>3889</v>
       </c>
       <c r="B41" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="C41" t="n">
-        <v>321</v>
+        <v>235</v>
       </c>
       <c r="D41" t="n">
-        <v>4610</v>
+        <v>6796</v>
       </c>
     </row>
     <row r="42">
@@ -1020,13 +1020,13 @@
         <v>4223</v>
       </c>
       <c r="B42" t="n">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="C42" t="n">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D42" t="n">
-        <v>2191</v>
+        <v>722</v>
       </c>
     </row>
     <row r="43">
@@ -1034,13 +1034,13 @@
         <v>4643</v>
       </c>
       <c r="B43" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C43" t="n">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="D43" t="n">
-        <v>1568</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="44">
@@ -1048,13 +1048,13 @@
         <v>4694</v>
       </c>
       <c r="B44" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C44" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D44" t="n">
-        <v>3690</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="45">
@@ -1062,13 +1062,13 @@
         <v>4773</v>
       </c>
       <c r="B45" t="n">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="C45" t="n">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D45" t="n">
-        <v>7529</v>
+        <v>8201</v>
       </c>
     </row>
     <row r="46">
@@ -1076,13 +1076,13 @@
         <v>4775</v>
       </c>
       <c r="B46" t="n">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C46" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D46" t="n">
-        <v>8074</v>
+        <v>9675</v>
       </c>
     </row>
     <row r="47">
@@ -1090,13 +1090,13 @@
         <v>4799</v>
       </c>
       <c r="B47" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C47" t="n">
-        <v>101</v>
+        <v>404</v>
       </c>
       <c r="D47" t="n">
-        <v>9825</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48">
@@ -1104,3415 +1104,3681 @@
         <v>5737</v>
       </c>
       <c r="B48" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="D48" t="n">
-        <v>8086</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7310</v>
+        <v>6598</v>
       </c>
       <c r="B49" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C49" t="n">
-        <v>253</v>
+        <v>345</v>
       </c>
       <c r="D49" t="n">
-        <v>9342</v>
+        <v>8358</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>7407</v>
+        <v>7310</v>
       </c>
       <c r="B50" t="n">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>112</v>
+        <v>300</v>
       </c>
       <c r="D50" t="n">
-        <v>9241</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7571</v>
+        <v>7407</v>
       </c>
       <c r="B51" t="n">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C51" t="n">
-        <v>62</v>
+        <v>455</v>
       </c>
       <c r="D51" t="n">
-        <v>7509</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7608</v>
+        <v>7571</v>
       </c>
       <c r="B52" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C52" t="n">
-        <v>418</v>
+        <v>304</v>
       </c>
       <c r="D52" t="n">
-        <v>3675</v>
+        <v>7101</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7738</v>
+        <v>7608</v>
       </c>
       <c r="B53" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C53" t="n">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="D53" t="n">
-        <v>9617</v>
+        <v>7388</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>8495</v>
+        <v>7738</v>
       </c>
       <c r="B54" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C54" t="n">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="D54" t="n">
-        <v>8480</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>8497</v>
+        <v>8495</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C55" t="n">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="D55" t="n">
-        <v>1746</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>8760</v>
+        <v>8497</v>
       </c>
       <c r="B56" t="n">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="C56" t="n">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="D56" t="n">
-        <v>1582</v>
+        <v>9490</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>8771</v>
+        <v>8760</v>
       </c>
       <c r="B57" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C57" t="n">
-        <v>498</v>
+        <v>290</v>
       </c>
       <c r="D57" t="n">
-        <v>4273</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>8810</v>
+        <v>8771</v>
       </c>
       <c r="B58" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C58" t="n">
-        <v>340</v>
+        <v>489</v>
       </c>
       <c r="D58" t="n">
-        <v>6904</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>8997</v>
+        <v>8810</v>
       </c>
       <c r="B59" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C59" t="n">
-        <v>423</v>
+        <v>230</v>
       </c>
       <c r="D59" t="n">
-        <v>9852</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9244</v>
+        <v>8997</v>
       </c>
       <c r="B60" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C60" t="n">
-        <v>430</v>
+        <v>206</v>
       </c>
       <c r="D60" t="n">
-        <v>1438</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9680</v>
+        <v>9244</v>
       </c>
       <c r="B61" t="n">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C61" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D61" t="n">
-        <v>6361</v>
+        <v>7927</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9699</v>
+        <v>9680</v>
       </c>
       <c r="B62" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C62" t="n">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="D62" t="n">
-        <v>7287</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>10013</v>
+        <v>9699</v>
       </c>
       <c r="B63" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C63" t="n">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="D63" t="n">
-        <v>9838</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B64" t="n">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C64" t="n">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="D64" t="n">
-        <v>554</v>
+        <v>5271</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>10524</v>
+        <v>10014</v>
       </c>
       <c r="B65" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C65" t="n">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="D65" t="n">
-        <v>8098</v>
+        <v>9533</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>10697</v>
+        <v>10145</v>
       </c>
       <c r="B66" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C66" t="n">
-        <v>372</v>
+        <v>49</v>
       </c>
       <c r="D66" t="n">
-        <v>2627</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>10698</v>
+        <v>10524</v>
       </c>
       <c r="B67" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C67" t="n">
-        <v>282</v>
+        <v>382</v>
       </c>
       <c r="D67" t="n">
-        <v>1963</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>10699</v>
+        <v>10697</v>
       </c>
       <c r="B68" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C68" t="n">
-        <v>455</v>
+        <v>274</v>
       </c>
       <c r="D68" t="n">
-        <v>6581</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>10700</v>
+        <v>10698</v>
       </c>
       <c r="B69" t="n">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="C69" t="n">
-        <v>275</v>
+        <v>129</v>
       </c>
       <c r="D69" t="n">
-        <v>4638</v>
+        <v>5664</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>10791</v>
+        <v>10699</v>
       </c>
       <c r="B70" t="n">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="C70" t="n">
-        <v>468</v>
+        <v>63</v>
       </c>
       <c r="D70" t="n">
-        <v>6927</v>
+        <v>6291</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>11813</v>
+        <v>10700</v>
       </c>
       <c r="B71" t="n">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="C71" t="n">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="D71" t="n">
-        <v>6468</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>12464</v>
+        <v>10728</v>
       </c>
       <c r="B72" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C72" t="n">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="D72" t="n">
-        <v>8272</v>
+        <v>8395</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>12465</v>
+        <v>10791</v>
       </c>
       <c r="B73" t="n">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C73" t="n">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="D73" t="n">
-        <v>8638</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>12563</v>
+        <v>11813</v>
       </c>
       <c r="B74" t="n">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C74" t="n">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="D74" t="n">
-        <v>4020</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>12766</v>
+        <v>12405</v>
       </c>
       <c r="B75" t="n">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C75" t="n">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="D75" t="n">
-        <v>807</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>13017</v>
+        <v>12464</v>
       </c>
       <c r="B76" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C76" t="n">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="D76" t="n">
-        <v>4880</v>
+        <v>8798</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>13454</v>
+        <v>12465</v>
       </c>
       <c r="B77" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C77" t="n">
-        <v>293</v>
+        <v>474</v>
       </c>
       <c r="D77" t="n">
-        <v>1744</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>14032</v>
+        <v>12563</v>
       </c>
       <c r="B78" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C78" t="n">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="D78" t="n">
-        <v>505</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>15039</v>
+        <v>12766</v>
       </c>
       <c r="B79" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C79" t="n">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="D79" t="n">
-        <v>9516</v>
+        <v>6674</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>15045</v>
+        <v>13017</v>
       </c>
       <c r="B80" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C80" t="n">
-        <v>484</v>
+        <v>73</v>
       </c>
       <c r="D80" t="n">
-        <v>330</v>
+        <v>9301</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>15072</v>
+        <v>13454</v>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C81" t="n">
-        <v>179</v>
+        <v>346</v>
       </c>
       <c r="D81" t="n">
-        <v>1160</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>15073</v>
+        <v>14032</v>
       </c>
       <c r="B82" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C82" t="n">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="D82" t="n">
-        <v>2825</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>15074</v>
+        <v>15039</v>
       </c>
       <c r="B83" t="n">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C83" t="n">
-        <v>207</v>
+        <v>363</v>
       </c>
       <c r="D83" t="n">
-        <v>4211</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>15077</v>
+        <v>15045</v>
       </c>
       <c r="B84" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C84" t="n">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="D84" t="n">
-        <v>1534</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>15081</v>
+        <v>15072</v>
       </c>
       <c r="B85" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C85" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D85" t="n">
-        <v>3700</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>15145</v>
+        <v>15073</v>
       </c>
       <c r="B86" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C86" t="n">
-        <v>24</v>
+        <v>471</v>
       </c>
       <c r="D86" t="n">
-        <v>6421</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>15176</v>
+        <v>15074</v>
       </c>
       <c r="B87" t="n">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C87" t="n">
-        <v>266</v>
+        <v>344</v>
       </c>
       <c r="D87" t="n">
-        <v>9253</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>15177</v>
+        <v>15077</v>
       </c>
       <c r="B88" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C88" t="n">
-        <v>277</v>
+        <v>456</v>
       </c>
       <c r="D88" t="n">
-        <v>9523</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>15178</v>
+        <v>15081</v>
       </c>
       <c r="B89" t="n">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="C89" t="n">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="D89" t="n">
-        <v>9443</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>15179</v>
+        <v>15145</v>
       </c>
       <c r="B90" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C90" t="n">
-        <v>318</v>
+        <v>62</v>
       </c>
       <c r="D90" t="n">
-        <v>8793</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>15757</v>
+        <v>15176</v>
       </c>
       <c r="B91" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C91" t="n">
-        <v>353</v>
+        <v>179</v>
       </c>
       <c r="D91" t="n">
-        <v>6773</v>
+        <v>5784</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>15759</v>
+        <v>15177</v>
       </c>
       <c r="B92" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C92" t="n">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D92" t="n">
-        <v>9237</v>
+        <v>9360</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>16164</v>
+        <v>15178</v>
       </c>
       <c r="B93" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C93" t="n">
-        <v>98</v>
+        <v>313</v>
       </c>
       <c r="D93" t="n">
-        <v>5890</v>
+        <v>7138</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>16165</v>
+        <v>15179</v>
       </c>
       <c r="B94" t="n">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="C94" t="n">
-        <v>7</v>
+        <v>382</v>
       </c>
       <c r="D94" t="n">
-        <v>1191</v>
+        <v>8102</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>16304</v>
+        <v>15757</v>
       </c>
       <c r="B95" t="n">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C95" t="n">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="D95" t="n">
-        <v>4496</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>16321</v>
+        <v>15759</v>
       </c>
       <c r="B96" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C96" t="n">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="D96" t="n">
-        <v>3187</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>16952</v>
+        <v>16164</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C97" t="n">
-        <v>287</v>
+        <v>88</v>
       </c>
       <c r="D97" t="n">
-        <v>1281</v>
+        <v>7820</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>16973</v>
+        <v>16165</v>
       </c>
       <c r="B98" t="n">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="C98" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D98" t="n">
-        <v>4144</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>16974</v>
+        <v>16304</v>
       </c>
       <c r="B99" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C99" t="n">
-        <v>368</v>
+        <v>105</v>
       </c>
       <c r="D99" t="n">
-        <v>4384</v>
+        <v>6382</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>16975</v>
+        <v>16321</v>
       </c>
       <c r="B100" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="C100" t="n">
-        <v>95</v>
+        <v>454</v>
       </c>
       <c r="D100" t="n">
-        <v>2602</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>16976</v>
+        <v>16952</v>
       </c>
       <c r="B101" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C101" t="n">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="D101" t="n">
-        <v>276</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>16999</v>
+        <v>16973</v>
       </c>
       <c r="B102" t="n">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="C102" t="n">
-        <v>301</v>
+        <v>485</v>
       </c>
       <c r="D102" t="n">
-        <v>506</v>
+        <v>9494</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>17165</v>
+        <v>16974</v>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C103" t="n">
-        <v>253</v>
+        <v>86</v>
       </c>
       <c r="D103" t="n">
-        <v>3856</v>
+        <v>8154</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>17197</v>
+        <v>16975</v>
       </c>
       <c r="B104" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C104" t="n">
-        <v>30</v>
+        <v>449</v>
       </c>
       <c r="D104" t="n">
-        <v>1433</v>
+        <v>5484</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>17199</v>
+        <v>16976</v>
       </c>
       <c r="B105" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C105" t="n">
-        <v>443</v>
+        <v>283</v>
       </c>
       <c r="D105" t="n">
-        <v>7458</v>
+        <v>8837</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>17200</v>
+        <v>16999</v>
       </c>
       <c r="B106" t="n">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C106" t="n">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D106" t="n">
-        <v>1694</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>17298</v>
+        <v>17165</v>
       </c>
       <c r="B107" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C107" t="n">
-        <v>455</v>
+        <v>378</v>
       </c>
       <c r="D107" t="n">
-        <v>8891</v>
+        <v>9461</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>17302</v>
+        <v>17197</v>
       </c>
       <c r="B108" t="n">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C108" t="n">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c r="D108" t="n">
-        <v>3541</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>17305</v>
+        <v>17199</v>
       </c>
       <c r="B109" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C109" t="n">
-        <v>302</v>
+        <v>100</v>
       </c>
       <c r="D109" t="n">
-        <v>706</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>17307</v>
+        <v>17200</v>
       </c>
       <c r="B110" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C110" t="n">
-        <v>404</v>
+        <v>154</v>
       </c>
       <c r="D110" t="n">
-        <v>4230</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>17310</v>
+        <v>17298</v>
       </c>
       <c r="B111" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C111" t="n">
-        <v>422</v>
+        <v>88</v>
       </c>
       <c r="D111" t="n">
-        <v>5549</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>17312</v>
+        <v>17302</v>
       </c>
       <c r="B112" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C112" t="n">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D112" t="n">
-        <v>4270</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>17313</v>
+        <v>17305</v>
       </c>
       <c r="B113" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C113" t="n">
-        <v>396</v>
+        <v>30</v>
       </c>
       <c r="D113" t="n">
-        <v>3178</v>
+        <v>429</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>17316</v>
+        <v>17307</v>
       </c>
       <c r="B114" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C114" t="n">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="D114" t="n">
-        <v>2586</v>
+        <v>9842</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>17414</v>
+        <v>17310</v>
       </c>
       <c r="B115" t="n">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C115" t="n">
-        <v>28</v>
+        <v>466</v>
       </c>
       <c r="D115" t="n">
-        <v>8430</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>17424</v>
+        <v>17312</v>
       </c>
       <c r="B116" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C116" t="n">
-        <v>341</v>
+        <v>487</v>
       </c>
       <c r="D116" t="n">
-        <v>210</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>17425</v>
+        <v>17313</v>
       </c>
       <c r="B117" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C117" t="n">
-        <v>276</v>
+        <v>368</v>
       </c>
       <c r="D117" t="n">
-        <v>3632</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>17535</v>
+        <v>17316</v>
       </c>
       <c r="B118" t="n">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C118" t="n">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="D118" t="n">
-        <v>8850</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>17536</v>
+        <v>17414</v>
       </c>
       <c r="B119" t="n">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C119" t="n">
-        <v>357</v>
+        <v>110</v>
       </c>
       <c r="D119" t="n">
-        <v>7085</v>
+        <v>632</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>17537</v>
+        <v>17424</v>
       </c>
       <c r="B120" t="n">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="C120" t="n">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="D120" t="n">
-        <v>5858</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>17538</v>
+        <v>17425</v>
       </c>
       <c r="B121" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C121" t="n">
-        <v>238</v>
+        <v>461</v>
       </c>
       <c r="D121" t="n">
-        <v>8554</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>17539</v>
+        <v>17535</v>
       </c>
       <c r="B122" t="n">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C122" t="n">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D122" t="n">
-        <v>6208</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>17540</v>
+        <v>17536</v>
       </c>
       <c r="B123" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C123" t="n">
-        <v>107</v>
+        <v>413</v>
       </c>
       <c r="D123" t="n">
-        <v>1668</v>
+        <v>9196</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>17541</v>
+        <v>17537</v>
       </c>
       <c r="B124" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="C124" t="n">
-        <v>378</v>
+        <v>470</v>
       </c>
       <c r="D124" t="n">
-        <v>7858</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>17542</v>
+        <v>17538</v>
       </c>
       <c r="B125" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C125" t="n">
-        <v>26</v>
+        <v>355</v>
       </c>
       <c r="D125" t="n">
-        <v>5169</v>
+        <v>9355</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>17544</v>
+        <v>17539</v>
       </c>
       <c r="B126" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C126" t="n">
-        <v>367</v>
+        <v>229</v>
       </c>
       <c r="D126" t="n">
-        <v>4363</v>
+        <v>9855</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>17545</v>
+        <v>17540</v>
       </c>
       <c r="B127" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C127" t="n">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="D127" t="n">
-        <v>6264</v>
+        <v>403</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>17546</v>
+        <v>17541</v>
       </c>
       <c r="B128" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C128" t="n">
-        <v>139</v>
+        <v>375</v>
       </c>
       <c r="D128" t="n">
-        <v>4296</v>
+        <v>7030</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>17547</v>
+        <v>17542</v>
       </c>
       <c r="B129" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C129" t="n">
-        <v>347</v>
+        <v>198</v>
       </c>
       <c r="D129" t="n">
-        <v>3572</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>17548</v>
+        <v>17543</v>
       </c>
       <c r="B130" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C130" t="n">
-        <v>434</v>
+        <v>81</v>
       </c>
       <c r="D130" t="n">
-        <v>7421</v>
+        <v>7647</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>17549</v>
+        <v>17544</v>
       </c>
       <c r="B131" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C131" t="n">
-        <v>469</v>
+        <v>319</v>
       </c>
       <c r="D131" t="n">
-        <v>8152</v>
+        <v>5777</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>17551</v>
+        <v>17545</v>
       </c>
       <c r="B132" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C132" t="n">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="D132" t="n">
-        <v>3207</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>17552</v>
+        <v>17546</v>
       </c>
       <c r="B133" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C133" t="n">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D133" t="n">
-        <v>4974</v>
+        <v>8023</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>17553</v>
+        <v>17547</v>
       </c>
       <c r="B134" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C134" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D134" t="n">
-        <v>877</v>
+        <v>8515</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>17557</v>
+        <v>17548</v>
       </c>
       <c r="B135" t="n">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C135" t="n">
-        <v>22</v>
+        <v>330</v>
       </c>
       <c r="D135" t="n">
-        <v>698</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>17619</v>
+        <v>17549</v>
       </c>
       <c r="B136" t="n">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="C136" t="n">
-        <v>259</v>
+        <v>358</v>
       </c>
       <c r="D136" t="n">
-        <v>4974</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>17666</v>
+        <v>17551</v>
       </c>
       <c r="B137" t="n">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C137" t="n">
-        <v>246</v>
+        <v>435</v>
       </c>
       <c r="D137" t="n">
-        <v>765</v>
+        <v>833</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>18056</v>
+        <v>17552</v>
       </c>
       <c r="B138" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C138" t="n">
-        <v>157</v>
+        <v>462</v>
       </c>
       <c r="D138" t="n">
-        <v>1357</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>18810</v>
+        <v>17553</v>
       </c>
       <c r="B139" t="n">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C139" t="n">
-        <v>22</v>
+        <v>340</v>
       </c>
       <c r="D139" t="n">
-        <v>7152</v>
+        <v>746</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>19253</v>
+        <v>17557</v>
       </c>
       <c r="B140" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C140" t="n">
-        <v>480</v>
+        <v>367</v>
       </c>
       <c r="D140" t="n">
-        <v>2520</v>
+        <v>9129</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>19680</v>
+        <v>17619</v>
       </c>
       <c r="B141" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C141" t="n">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="D141" t="n">
-        <v>6266</v>
+        <v>7122</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>20274</v>
+        <v>17666</v>
       </c>
       <c r="B142" t="n">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C142" t="n">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="D142" t="n">
-        <v>7380</v>
+        <v>545</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>20276</v>
+        <v>18056</v>
       </c>
       <c r="B143" t="n">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C143" t="n">
-        <v>416</v>
+        <v>149</v>
       </c>
       <c r="D143" t="n">
-        <v>7472</v>
+        <v>8376</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>20277</v>
+        <v>18810</v>
       </c>
       <c r="B144" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C144" t="n">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="D144" t="n">
-        <v>5525</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>20278</v>
+        <v>19244</v>
       </c>
       <c r="B145" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="C145" t="n">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="D145" t="n">
-        <v>9948</v>
+        <v>8046</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>20279</v>
+        <v>19253</v>
       </c>
       <c r="B146" t="n">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="C146" t="n">
-        <v>168</v>
+        <v>443</v>
       </c>
       <c r="D146" t="n">
-        <v>6087</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>20645</v>
+        <v>19680</v>
       </c>
       <c r="B147" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C147" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D147" t="n">
-        <v>2780</v>
+        <v>7222</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>21122</v>
+        <v>20274</v>
       </c>
       <c r="B148" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C148" t="n">
-        <v>438</v>
+        <v>44</v>
       </c>
       <c r="D148" t="n">
-        <v>8064</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>21365</v>
+        <v>20276</v>
       </c>
       <c r="B149" t="n">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C149" t="n">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="D149" t="n">
-        <v>1311</v>
+        <v>237</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>22247</v>
+        <v>20277</v>
       </c>
       <c r="B150" t="n">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C150" t="n">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="D150" t="n">
-        <v>482</v>
+        <v>716</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>22248</v>
+        <v>20278</v>
       </c>
       <c r="B151" t="n">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="C151" t="n">
-        <v>337</v>
+        <v>131</v>
       </c>
       <c r="D151" t="n">
-        <v>9738</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>22648</v>
+        <v>20279</v>
       </c>
       <c r="B152" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C152" t="n">
-        <v>469</v>
+        <v>325</v>
       </c>
       <c r="D152" t="n">
-        <v>7942</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>22649</v>
+        <v>20645</v>
       </c>
       <c r="B153" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C153" t="n">
-        <v>280</v>
+        <v>403</v>
       </c>
       <c r="D153" t="n">
-        <v>5117</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>22876</v>
+        <v>20698</v>
       </c>
       <c r="B154" t="n">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C154" t="n">
-        <v>482</v>
+        <v>221</v>
       </c>
       <c r="D154" t="n">
-        <v>9401</v>
+        <v>7225</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>22880</v>
+        <v>21122</v>
       </c>
       <c r="B155" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C155" t="n">
-        <v>432</v>
+        <v>102</v>
       </c>
       <c r="D155" t="n">
-        <v>9654</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>22884</v>
+        <v>21365</v>
       </c>
       <c r="B156" t="n">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C156" t="n">
-        <v>352</v>
+        <v>161</v>
       </c>
       <c r="D156" t="n">
-        <v>1098</v>
+        <v>207</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>22889</v>
+        <v>22247</v>
       </c>
       <c r="B157" t="n">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C157" t="n">
-        <v>382</v>
+        <v>305</v>
       </c>
       <c r="D157" t="n">
-        <v>9510</v>
+        <v>8338</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>22891</v>
+        <v>22248</v>
       </c>
       <c r="B158" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C158" t="n">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="D158" t="n">
-        <v>6808</v>
+        <v>5322</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>22908</v>
+        <v>22464</v>
       </c>
       <c r="B159" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C159" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D159" t="n">
-        <v>860</v>
+        <v>6766</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>22920</v>
+        <v>22648</v>
       </c>
       <c r="B160" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C160" t="n">
-        <v>106</v>
+        <v>480</v>
       </c>
       <c r="D160" t="n">
-        <v>7439</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>22921</v>
+        <v>22649</v>
       </c>
       <c r="B161" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C161" t="n">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="D161" t="n">
-        <v>5852</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>22922</v>
+        <v>22876</v>
       </c>
       <c r="B162" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C162" t="n">
-        <v>81</v>
+        <v>403</v>
       </c>
       <c r="D162" t="n">
-        <v>4841</v>
+        <v>5665</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>22923</v>
+        <v>22880</v>
       </c>
       <c r="B163" t="n">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="C163" t="n">
-        <v>173</v>
+        <v>428</v>
       </c>
       <c r="D163" t="n">
-        <v>4224</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>22931</v>
+        <v>22881</v>
       </c>
       <c r="B164" t="n">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="C164" t="n">
-        <v>401</v>
+        <v>246</v>
       </c>
       <c r="D164" t="n">
-        <v>8536</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>22996</v>
+        <v>22884</v>
       </c>
       <c r="B165" t="n">
+        <v>17</v>
+      </c>
+      <c r="C165" t="n">
         <v>20</v>
       </c>
-      <c r="C165" t="n">
-        <v>197</v>
-      </c>
       <c r="D165" t="n">
-        <v>547</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>23006</v>
+        <v>22889</v>
       </c>
       <c r="B166" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C166" t="n">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="D166" t="n">
-        <v>6065</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>23017</v>
+        <v>22891</v>
       </c>
       <c r="B167" t="n">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C167" t="n">
-        <v>146</v>
+        <v>330</v>
       </c>
       <c r="D167" t="n">
-        <v>2539</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>23052</v>
+        <v>22908</v>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C168" t="n">
-        <v>99</v>
+        <v>444</v>
       </c>
       <c r="D168" t="n">
-        <v>4336</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>23053</v>
+        <v>22920</v>
       </c>
       <c r="B169" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C169" t="n">
-        <v>199</v>
+        <v>57</v>
       </c>
       <c r="D169" t="n">
-        <v>3394</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>23056</v>
+        <v>22921</v>
       </c>
       <c r="B170" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C170" t="n">
-        <v>142</v>
+        <v>376</v>
       </c>
       <c r="D170" t="n">
-        <v>4074</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>23081</v>
+        <v>22922</v>
       </c>
       <c r="B171" t="n">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="C171" t="n">
-        <v>227</v>
+        <v>388</v>
       </c>
       <c r="D171" t="n">
-        <v>1995</v>
+        <v>9802</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>23083</v>
+        <v>22923</v>
       </c>
       <c r="B172" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C172" t="n">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="D172" t="n">
-        <v>9739</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>23140</v>
+        <v>22931</v>
       </c>
       <c r="B173" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C173" t="n">
-        <v>59</v>
+        <v>475</v>
       </c>
       <c r="D173" t="n">
-        <v>7190</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>23143</v>
+        <v>22996</v>
       </c>
       <c r="B174" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C174" t="n">
-        <v>88</v>
+        <v>431</v>
       </c>
       <c r="D174" t="n">
-        <v>6592</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>23144</v>
+        <v>23006</v>
       </c>
       <c r="B175" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C175" t="n">
-        <v>198</v>
+        <v>3</v>
       </c>
       <c r="D175" t="n">
-        <v>328</v>
+        <v>5826</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>23145</v>
+        <v>23017</v>
       </c>
       <c r="B176" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C176" t="n">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D176" t="n">
-        <v>6791</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>23153</v>
+        <v>23052</v>
       </c>
       <c r="B177" t="n">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C177" t="n">
-        <v>369</v>
+        <v>115</v>
       </c>
       <c r="D177" t="n">
-        <v>7887</v>
+        <v>5359</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>23154</v>
+        <v>23053</v>
       </c>
       <c r="B178" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C178" t="n">
-        <v>446</v>
+        <v>138</v>
       </c>
       <c r="D178" t="n">
-        <v>5544</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>23155</v>
+        <v>23056</v>
       </c>
       <c r="B179" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C179" t="n">
-        <v>495</v>
+        <v>337</v>
       </c>
       <c r="D179" t="n">
-        <v>1123</v>
+        <v>8632</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>23156</v>
+        <v>23081</v>
       </c>
       <c r="B180" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C180" t="n">
-        <v>457</v>
+        <v>338</v>
       </c>
       <c r="D180" t="n">
-        <v>5485</v>
+        <v>8590</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>23215</v>
+        <v>23083</v>
       </c>
       <c r="B181" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C181" t="n">
-        <v>179</v>
+        <v>412</v>
       </c>
       <c r="D181" t="n">
-        <v>7653</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>23569</v>
+        <v>23140</v>
       </c>
       <c r="B182" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C182" t="n">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="D182" t="n">
-        <v>7569</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>23759</v>
+        <v>23143</v>
       </c>
       <c r="B183" t="n">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="C183" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D183" t="n">
-        <v>8899</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>24324</v>
+        <v>23144</v>
       </c>
       <c r="B184" t="n">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C184" t="n">
-        <v>313</v>
+        <v>426</v>
       </c>
       <c r="D184" t="n">
-        <v>8065</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>25145</v>
+        <v>23145</v>
       </c>
       <c r="B185" t="n">
         <v>4</v>
       </c>
       <c r="C185" t="n">
-        <v>497</v>
+        <v>325</v>
       </c>
       <c r="D185" t="n">
-        <v>3931</v>
+        <v>899</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>25179</v>
+        <v>23153</v>
       </c>
       <c r="B186" t="n">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C186" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D186" t="n">
-        <v>982</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>26974</v>
+        <v>23154</v>
       </c>
       <c r="B187" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C187" t="n">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D187" t="n">
-        <v>4961</v>
+        <v>282</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>27538</v>
+        <v>23155</v>
       </c>
       <c r="B188" t="n">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="C188" t="n">
-        <v>334</v>
+        <v>477</v>
       </c>
       <c r="D188" t="n">
-        <v>9224</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>27540</v>
+        <v>23156</v>
       </c>
       <c r="B189" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C189" t="n">
-        <v>59</v>
+        <v>280</v>
       </c>
       <c r="D189" t="n">
-        <v>5632</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>27688</v>
+        <v>23215</v>
       </c>
       <c r="B190" t="n">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C190" t="n">
-        <v>333</v>
+        <v>67</v>
       </c>
       <c r="D190" t="n">
-        <v>7007</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>31122</v>
+        <v>23569</v>
       </c>
       <c r="B191" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C191" t="n">
-        <v>382</v>
+        <v>109</v>
       </c>
       <c r="D191" t="n">
-        <v>1170</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>31197</v>
+        <v>23759</v>
       </c>
       <c r="B192" t="n">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C192" t="n">
-        <v>321</v>
+        <v>467</v>
       </c>
       <c r="D192" t="n">
-        <v>430</v>
+        <v>6283</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>31365</v>
+        <v>24324</v>
       </c>
       <c r="B193" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C193" t="n">
-        <v>253</v>
+        <v>37</v>
       </c>
       <c r="D193" t="n">
-        <v>6957</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>31828</v>
+        <v>25145</v>
       </c>
       <c r="B194" t="n">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C194" t="n">
-        <v>92</v>
+        <v>352</v>
       </c>
       <c r="D194" t="n">
-        <v>2946</v>
+        <v>5301</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>32891</v>
+        <v>25179</v>
       </c>
       <c r="B195" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C195" t="n">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="D195" t="n">
-        <v>7581</v>
+        <v>7337</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>32908</v>
+        <v>25759</v>
       </c>
       <c r="B196" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C196" t="n">
-        <v>426</v>
+        <v>331</v>
       </c>
       <c r="D196" t="n">
-        <v>9407</v>
+        <v>8317</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>33056</v>
+        <v>26974</v>
       </c>
       <c r="B197" t="n">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C197" t="n">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="D197" t="n">
-        <v>5082</v>
+        <v>8204</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>33143</v>
+        <v>27538</v>
       </c>
       <c r="B198" t="n">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="C198" t="n">
-        <v>496</v>
+        <v>412</v>
       </c>
       <c r="D198" t="n">
-        <v>2665</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>33144</v>
+        <v>27540</v>
       </c>
       <c r="B199" t="n">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C199" t="n">
-        <v>42</v>
+        <v>467</v>
       </c>
       <c r="D199" t="n">
-        <v>1656</v>
+        <v>6259</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>33154</v>
+        <v>27688</v>
       </c>
       <c r="B200" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C200" t="n">
-        <v>197</v>
+        <v>434</v>
       </c>
       <c r="D200" t="n">
-        <v>5278</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>33215</v>
+        <v>31122</v>
       </c>
       <c r="B201" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C201" t="n">
-        <v>370</v>
+        <v>243</v>
       </c>
       <c r="D201" t="n">
-        <v>919</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>34075</v>
+        <v>31197</v>
       </c>
       <c r="B202" t="n">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C202" t="n">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D202" t="n">
-        <v>4525</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>37929</v>
+        <v>31365</v>
       </c>
       <c r="B203" t="n">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C203" t="n">
-        <v>370</v>
+        <v>66</v>
       </c>
       <c r="D203" t="n">
-        <v>192</v>
+        <v>7125</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>41366</v>
+        <v>31828</v>
       </c>
       <c r="B204" t="n">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C204" t="n">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="D204" t="n">
-        <v>5497</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>41828</v>
+        <v>32891</v>
       </c>
       <c r="B205" t="n">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C205" t="n">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="D205" t="n">
-        <v>1883</v>
+        <v>9074</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>43923</v>
+        <v>32908</v>
       </c>
       <c r="B206" t="n">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C206" t="n">
-        <v>350</v>
+        <v>281</v>
       </c>
       <c r="D206" t="n">
-        <v>9754</v>
+        <v>8274</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>43924</v>
+        <v>33056</v>
       </c>
       <c r="B207" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C207" t="n">
-        <v>179</v>
+        <v>456</v>
       </c>
       <c r="D207" t="n">
-        <v>2203</v>
+        <v>7975</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>43972</v>
+        <v>33143</v>
       </c>
       <c r="B208" t="n">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C208" t="n">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="D208" t="n">
-        <v>7264</v>
+        <v>7777</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>46605</v>
+        <v>33144</v>
       </c>
       <c r="B209" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C209" t="n">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="D209" t="n">
-        <v>3297</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>50957</v>
+        <v>33154</v>
       </c>
       <c r="B210" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C210" t="n">
-        <v>86</v>
+        <v>386</v>
       </c>
       <c r="D210" t="n">
-        <v>7660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>53972</v>
+        <v>33155</v>
       </c>
       <c r="B211" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C211" t="n">
-        <v>327</v>
+        <v>201</v>
       </c>
       <c r="D211" t="n">
-        <v>6803</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>56605</v>
+        <v>33215</v>
       </c>
       <c r="B212" t="n">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C212" t="n">
-        <v>227</v>
+        <v>71</v>
       </c>
       <c r="D212" t="n">
-        <v>9852</v>
+        <v>9015</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>60957</v>
+        <v>34075</v>
       </c>
       <c r="B213" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C213" t="n">
-        <v>217</v>
+        <v>409</v>
       </c>
       <c r="D213" t="n">
-        <v>401</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>63793</v>
+        <v>37688</v>
       </c>
       <c r="B214" t="n">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C214" t="n">
-        <v>467</v>
+        <v>296</v>
       </c>
       <c r="D214" t="n">
-        <v>7911</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>67289</v>
+        <v>37929</v>
       </c>
       <c r="B215" t="n">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C215" t="n">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="D215" t="n">
-        <v>3368</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>77693</v>
+        <v>41197</v>
       </c>
       <c r="B216" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="C216" t="n">
-        <v>413</v>
+        <v>254</v>
       </c>
       <c r="D216" t="n">
-        <v>7192</v>
+        <v>8289</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>82609</v>
+        <v>41366</v>
       </c>
       <c r="B217" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="C217" t="n">
-        <v>479</v>
+        <v>310</v>
       </c>
       <c r="D217" t="n">
-        <v>2061</v>
+        <v>6723</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>83755</v>
+        <v>41828</v>
       </c>
       <c r="B218" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C218" t="n">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="D218" t="n">
-        <v>9514</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>88313</v>
+        <v>43923</v>
       </c>
       <c r="B219" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C219" t="n">
-        <v>199</v>
+        <v>349</v>
       </c>
       <c r="D219" t="n">
-        <v>9112</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>90849</v>
+        <v>43924</v>
       </c>
       <c r="B220" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C220" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D220" t="n">
-        <v>9663</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>91137</v>
+        <v>43972</v>
       </c>
       <c r="B221" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C221" t="n">
-        <v>306</v>
+        <v>125</v>
       </c>
       <c r="D221" t="n">
-        <v>3750</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>92609</v>
+        <v>46605</v>
       </c>
       <c r="B222" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C222" t="n">
-        <v>242</v>
+        <v>496</v>
       </c>
       <c r="D222" t="n">
-        <v>2896</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>129493</v>
+        <v>50957</v>
       </c>
       <c r="B223" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C223" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D223" t="n">
-        <v>3139</v>
+        <v>8715</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>149421</v>
+        <v>53972</v>
       </c>
       <c r="B224" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C224" t="n">
-        <v>443</v>
+        <v>355</v>
       </c>
       <c r="D224" t="n">
-        <v>6497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>149422</v>
+        <v>56605</v>
       </c>
       <c r="B225" t="n">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C225" t="n">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D225" t="n">
-        <v>7894</v>
+        <v>458</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>149423</v>
+        <v>60957</v>
       </c>
       <c r="B226" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C226" t="n">
-        <v>477</v>
+        <v>30</v>
       </c>
       <c r="D226" t="n">
-        <v>1661</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>149424</v>
+        <v>63793</v>
       </c>
       <c r="B227" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C227" t="n">
-        <v>251</v>
+        <v>482</v>
       </c>
       <c r="D227" t="n">
-        <v>9964</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>160858</v>
+        <v>67289</v>
       </c>
       <c r="B228" t="n">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="C228" t="n">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="D228" t="n">
-        <v>5757</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>160859</v>
+        <v>77693</v>
       </c>
       <c r="B229" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C229" t="n">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="D229" t="n">
-        <v>7303</v>
+        <v>7747</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>161288</v>
+        <v>82609</v>
       </c>
       <c r="B230" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C230" t="n">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="D230" t="n">
-        <v>7894</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>197866</v>
+        <v>83755</v>
       </c>
       <c r="B231" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C231" t="n">
-        <v>133</v>
+        <v>410</v>
       </c>
       <c r="D231" t="n">
-        <v>9107</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>197867</v>
+        <v>88313</v>
       </c>
       <c r="B232" t="n">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="C232" t="n">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="D232" t="n">
-        <v>750</v>
+        <v>6446</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>206139</v>
+        <v>90849</v>
       </c>
       <c r="B233" t="n">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C233" t="n">
-        <v>273</v>
+        <v>389</v>
       </c>
       <c r="D233" t="n">
-        <v>9730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>206141</v>
+        <v>91137</v>
       </c>
       <c r="B234" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C234" t="n">
-        <v>486</v>
+        <v>85</v>
       </c>
       <c r="D234" t="n">
-        <v>1711</v>
+        <v>9459</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>206142</v>
+        <v>92609</v>
       </c>
       <c r="B235" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C235" t="n">
-        <v>303</v>
+        <v>445</v>
       </c>
       <c r="D235" t="n">
-        <v>3230</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>206143</v>
+        <v>93755</v>
       </c>
       <c r="B236" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C236" t="n">
-        <v>176</v>
+        <v>362</v>
       </c>
       <c r="D236" t="n">
-        <v>5491</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>206144</v>
+        <v>129493</v>
       </c>
       <c r="B237" t="n">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="C237" t="n">
-        <v>86</v>
+        <v>437</v>
       </c>
       <c r="D237" t="n">
-        <v>361</v>
+        <v>5763</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>206145</v>
+        <v>149421</v>
       </c>
       <c r="B238" t="n">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C238" t="n">
-        <v>346</v>
+        <v>103</v>
       </c>
       <c r="D238" t="n">
-        <v>7334</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>227807</v>
+        <v>149422</v>
       </c>
       <c r="B239" t="n">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C239" t="n">
-        <v>237</v>
+        <v>402</v>
       </c>
       <c r="D239" t="n">
-        <v>5571</v>
+        <v>7709</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>227808</v>
+        <v>149423</v>
       </c>
       <c r="B240" t="n">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C240" t="n">
-        <v>161</v>
+        <v>375</v>
       </c>
       <c r="D240" t="n">
-        <v>5121</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>227809</v>
+        <v>149424</v>
       </c>
       <c r="B241" t="n">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C241" t="n">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="D241" t="n">
-        <v>6530</v>
+        <v>6205</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>227810</v>
+        <v>160858</v>
       </c>
       <c r="B242" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C242" t="n">
-        <v>489</v>
+        <v>240</v>
       </c>
       <c r="D242" t="n">
-        <v>5102</v>
+        <v>6529</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>227811</v>
+        <v>160859</v>
       </c>
       <c r="B243" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C243" t="n">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="D243" t="n">
-        <v>8168</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>227812</v>
+        <v>161288</v>
       </c>
       <c r="B244" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>188</v>
+        <v>418</v>
       </c>
       <c r="D244" t="n">
-        <v>4821</v>
+        <v>679</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>227898</v>
+        <v>197866</v>
       </c>
       <c r="B245" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C245" t="n">
-        <v>212</v>
+        <v>29</v>
       </c>
       <c r="D245" t="n">
-        <v>2858</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>227899</v>
+        <v>197867</v>
       </c>
       <c r="B246" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C246" t="n">
-        <v>342</v>
+        <v>97</v>
       </c>
       <c r="D246" t="n">
-        <v>8252</v>
+        <v>8784</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>227900</v>
+        <v>206139</v>
       </c>
       <c r="B247" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C247" t="n">
-        <v>361</v>
+        <v>58</v>
       </c>
       <c r="D247" t="n">
-        <v>7262</v>
+        <v>9836</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>234151</v>
+        <v>206141</v>
       </c>
       <c r="B248" t="n">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="C248" t="n">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="D248" t="n">
-        <v>5391</v>
+        <v>7952</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>237807</v>
+        <v>206142</v>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C249" t="n">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="D249" t="n">
-        <v>5176</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>245051</v>
+        <v>206143</v>
       </c>
       <c r="B250" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C250" t="n">
-        <v>125</v>
+        <v>361</v>
       </c>
       <c r="D250" t="n">
-        <v>4596</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>251508</v>
+        <v>206144</v>
       </c>
       <c r="B251" t="n">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C251" t="n">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="D251" t="n">
-        <v>633</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>251515</v>
+        <v>206145</v>
       </c>
       <c r="B252" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C252" t="n">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="D252" t="n">
-        <v>3291</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>251571</v>
+        <v>216143</v>
       </c>
       <c r="B253" t="n">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="C253" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="D253" t="n">
-        <v>9766</v>
+        <v>893</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>251864</v>
+        <v>227807</v>
       </c>
       <c r="B254" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C254" t="n">
-        <v>209</v>
+        <v>442</v>
       </c>
       <c r="D254" t="n">
-        <v>6653</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>251865</v>
+        <v>227808</v>
       </c>
       <c r="B255" t="n">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C255" t="n">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="D255" t="n">
-        <v>605</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>252501</v>
+        <v>227809</v>
       </c>
       <c r="B256" t="n">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="C256" t="n">
-        <v>55</v>
+        <v>470</v>
       </c>
       <c r="D256" t="n">
-        <v>9273</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>252721</v>
+        <v>227810</v>
       </c>
       <c r="B257" t="n">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C257" t="n">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="D257" t="n">
-        <v>4052</v>
+        <v>8435</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>252722</v>
+        <v>227811</v>
       </c>
       <c r="B258" t="n">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="C258" t="n">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="D258" t="n">
-        <v>5215</v>
+        <v>5313</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>252723</v>
+        <v>227812</v>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C259" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D259" t="n">
-        <v>5583</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>252724</v>
+        <v>227898</v>
       </c>
       <c r="B260" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C260" t="n">
-        <v>276</v>
+        <v>56</v>
       </c>
       <c r="D260" t="n">
-        <v>6640</v>
+        <v>864</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>252725</v>
+        <v>227899</v>
       </c>
       <c r="B261" t="n">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C261" t="n">
-        <v>330</v>
+        <v>229</v>
       </c>
       <c r="D261" t="n">
-        <v>1346</v>
+        <v>7548</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>252726</v>
+        <v>227900</v>
       </c>
       <c r="B262" t="n">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="C262" t="n">
-        <v>300</v>
+        <v>184</v>
       </c>
       <c r="D262" t="n">
-        <v>9589</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>252729</v>
+        <v>234151</v>
       </c>
       <c r="B263" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C263" t="n">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="D263" t="n">
-        <v>1868</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>252730</v>
+        <v>237807</v>
       </c>
       <c r="B264" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C264" t="n">
-        <v>367</v>
+        <v>51</v>
       </c>
       <c r="D264" t="n">
-        <v>8264</v>
+        <v>7164</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>252731</v>
+        <v>237809</v>
       </c>
       <c r="B265" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C265" t="n">
-        <v>373</v>
+        <v>84</v>
       </c>
       <c r="D265" t="n">
-        <v>4729</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>252732</v>
+        <v>237900</v>
       </c>
       <c r="B266" t="n">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="C266" t="n">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="D266" t="n">
-        <v>1012</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>252733</v>
+        <v>245051</v>
       </c>
       <c r="B267" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C267" t="n">
-        <v>55</v>
+        <v>483</v>
       </c>
       <c r="D267" t="n">
-        <v>2038</v>
+        <v>8534</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>252734</v>
+        <v>251508</v>
       </c>
       <c r="B268" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C268" t="n">
-        <v>483</v>
+        <v>63</v>
       </c>
       <c r="D268" t="n">
-        <v>7541</v>
+        <v>6145</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>252737</v>
+        <v>251515</v>
       </c>
       <c r="B269" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C269" t="n">
-        <v>450</v>
+        <v>281</v>
       </c>
       <c r="D269" t="n">
-        <v>8085</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>252738</v>
+        <v>251571</v>
       </c>
       <c r="B270" t="n">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C270" t="n">
-        <v>448</v>
+        <v>212</v>
       </c>
       <c r="D270" t="n">
-        <v>7639</v>
+        <v>7924</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>252741</v>
+        <v>251864</v>
       </c>
       <c r="B271" t="n">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C271" t="n">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="D271" t="n">
-        <v>5884</v>
+        <v>9399</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>252742</v>
+        <v>251865</v>
       </c>
       <c r="B272" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C272" t="n">
-        <v>156</v>
+        <v>378</v>
       </c>
       <c r="D272" t="n">
-        <v>7100</v>
+        <v>6327</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>252743</v>
+        <v>252501</v>
       </c>
       <c r="B273" t="n">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C273" t="n">
-        <v>255</v>
+        <v>334</v>
       </c>
       <c r="D273" t="n">
-        <v>8754</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>252779</v>
+        <v>252721</v>
       </c>
       <c r="B274" t="n">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="C274" t="n">
-        <v>30</v>
+        <v>459</v>
       </c>
       <c r="D274" t="n">
-        <v>4768</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>252908</v>
+        <v>252722</v>
       </c>
       <c r="B275" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C275" t="n">
-        <v>25</v>
+        <v>439</v>
       </c>
       <c r="D275" t="n">
-        <v>5540</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>252909</v>
+        <v>252723</v>
       </c>
       <c r="B276" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C276" t="n">
-        <v>486</v>
+        <v>328</v>
       </c>
       <c r="D276" t="n">
-        <v>6184</v>
+        <v>8997</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>252910</v>
+        <v>252724</v>
       </c>
       <c r="B277" t="n">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="C277" t="n">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="D277" t="n">
-        <v>3249</v>
+        <v>7704</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>252911</v>
+        <v>252725</v>
       </c>
       <c r="B278" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="C278" t="n">
-        <v>428</v>
+        <v>60</v>
       </c>
       <c r="D278" t="n">
-        <v>6437</v>
+        <v>9161</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>252912</v>
+        <v>252726</v>
       </c>
       <c r="B279" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="C279" t="n">
-        <v>185</v>
+        <v>426</v>
       </c>
       <c r="D279" t="n">
-        <v>4707</v>
+        <v>7737</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>252915</v>
+        <v>252729</v>
       </c>
       <c r="B280" t="n">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C280" t="n">
-        <v>492</v>
+        <v>140</v>
       </c>
       <c r="D280" t="n">
-        <v>123</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>252916</v>
+        <v>252730</v>
       </c>
       <c r="B281" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C281" t="n">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="D281" t="n">
-        <v>7744</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>252918</v>
+        <v>252731</v>
       </c>
       <c r="B282" t="n">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C282" t="n">
-        <v>212</v>
+        <v>395</v>
       </c>
       <c r="D282" t="n">
-        <v>7324</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>255312</v>
+        <v>252732</v>
       </c>
       <c r="B283" t="n">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C283" t="n">
-        <v>276</v>
+        <v>55</v>
       </c>
       <c r="D283" t="n">
-        <v>1598</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>256932</v>
+        <v>252733</v>
       </c>
       <c r="B284" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C284" t="n">
-        <v>322</v>
+        <v>200</v>
       </c>
       <c r="D284" t="n">
-        <v>3645</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>262721</v>
+        <v>252734</v>
       </c>
       <c r="B285" t="n">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="C285" t="n">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="D285" t="n">
-        <v>6151</v>
+        <v>8928</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>262737</v>
+        <v>252737</v>
       </c>
       <c r="B286" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C286" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D286" t="n">
-        <v>5946</v>
+        <v>8248</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>262743</v>
+        <v>252738</v>
       </c>
       <c r="B287" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C287" t="n">
-        <v>250</v>
+        <v>445</v>
       </c>
       <c r="D287" t="n">
-        <v>6711</v>
+        <v>6043</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>262915</v>
+        <v>252741</v>
       </c>
       <c r="B288" t="n">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C288" t="n">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="D288" t="n">
-        <v>931</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>267451</v>
+        <v>252742</v>
       </c>
       <c r="B289" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C289" t="n">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="D289" t="n">
-        <v>346</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>267452</v>
+        <v>252743</v>
       </c>
       <c r="B290" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C290" t="n">
-        <v>484</v>
+        <v>149</v>
       </c>
       <c r="D290" t="n">
-        <v>2660</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
+        <v>252779</v>
+      </c>
+      <c r="B291" t="n">
+        <v>38</v>
+      </c>
+      <c r="C291" t="n">
+        <v>174</v>
+      </c>
+      <c r="D291" t="n">
+        <v>6904</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>252908</v>
+      </c>
+      <c r="B292" t="n">
+        <v>19</v>
+      </c>
+      <c r="C292" t="n">
+        <v>32</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>252909</v>
+      </c>
+      <c r="B293" t="n">
+        <v>88</v>
+      </c>
+      <c r="C293" t="n">
+        <v>225</v>
+      </c>
+      <c r="D293" t="n">
+        <v>7108</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>252910</v>
+      </c>
+      <c r="B294" t="n">
+        <v>22</v>
+      </c>
+      <c r="C294" t="n">
+        <v>342</v>
+      </c>
+      <c r="D294" t="n">
+        <v>6292</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>252911</v>
+      </c>
+      <c r="B295" t="n">
+        <v>20</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+      <c r="D295" t="n">
+        <v>4917</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>252912</v>
+      </c>
+      <c r="B296" t="n">
+        <v>23</v>
+      </c>
+      <c r="C296" t="n">
+        <v>113</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>252915</v>
+      </c>
+      <c r="B297" t="n">
+        <v>9</v>
+      </c>
+      <c r="C297" t="n">
+        <v>239</v>
+      </c>
+      <c r="D297" t="n">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>252916</v>
+      </c>
+      <c r="B298" t="n">
+        <v>98</v>
+      </c>
+      <c r="C298" t="n">
+        <v>487</v>
+      </c>
+      <c r="D298" t="n">
+        <v>6455</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>252918</v>
+      </c>
+      <c r="B299" t="n">
+        <v>59</v>
+      </c>
+      <c r="C299" t="n">
+        <v>132</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>255312</v>
+      </c>
+      <c r="B300" t="n">
+        <v>34</v>
+      </c>
+      <c r="C300" t="n">
+        <v>347</v>
+      </c>
+      <c r="D300" t="n">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>256932</v>
+      </c>
+      <c r="B301" t="n">
+        <v>58</v>
+      </c>
+      <c r="C301" t="n">
+        <v>333</v>
+      </c>
+      <c r="D301" t="n">
+        <v>8734</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>262721</v>
+      </c>
+      <c r="B302" t="n">
+        <v>83</v>
+      </c>
+      <c r="C302" t="n">
+        <v>342</v>
+      </c>
+      <c r="D302" t="n">
+        <v>7369</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>262723</v>
+      </c>
+      <c r="B303" t="n">
+        <v>2</v>
+      </c>
+      <c r="C303" t="n">
+        <v>392</v>
+      </c>
+      <c r="D303" t="n">
+        <v>6953</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>262732</v>
+      </c>
+      <c r="B304" t="n">
+        <v>65</v>
+      </c>
+      <c r="C304" t="n">
+        <v>260</v>
+      </c>
+      <c r="D304" t="n">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>262737</v>
+      </c>
+      <c r="B305" t="n">
+        <v>91</v>
+      </c>
+      <c r="C305" t="n">
+        <v>13</v>
+      </c>
+      <c r="D305" t="n">
+        <v>8267</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>262743</v>
+      </c>
+      <c r="B306" t="n">
+        <v>78</v>
+      </c>
+      <c r="C306" t="n">
+        <v>423</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>262915</v>
+      </c>
+      <c r="B307" t="n">
+        <v>25</v>
+      </c>
+      <c r="C307" t="n">
+        <v>298</v>
+      </c>
+      <c r="D307" t="n">
+        <v>9847</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>267451</v>
+      </c>
+      <c r="B308" t="n">
+        <v>11</v>
+      </c>
+      <c r="C308" t="n">
+        <v>162</v>
+      </c>
+      <c r="D308" t="n">
+        <v>9785</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>267452</v>
+      </c>
+      <c r="B309" t="n">
+        <v>43</v>
+      </c>
+      <c r="C309" t="n">
+        <v>333</v>
+      </c>
+      <c r="D309" t="n">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
         <v>268346</v>
       </c>
-      <c r="B291" t="n">
-        <v>68</v>
-      </c>
-      <c r="C291" t="n">
-        <v>51</v>
-      </c>
-      <c r="D291" t="n">
-        <v>7764</v>
+      <c r="B310" t="n">
+        <v>22</v>
+      </c>
+      <c r="C310" t="n">
+        <v>242</v>
+      </c>
+      <c r="D310" t="n">
+        <v>5879</v>
       </c>
     </row>
   </sheetData>

--- a/src/bigdata/static/db/anime_extra.xlsx
+++ b/src/bigdata/static/db/anime_extra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D310"/>
+  <dimension ref="A1:D327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,13 +460,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C2" t="n">
-        <v>399</v>
+        <v>138</v>
       </c>
       <c r="D2" t="n">
-        <v>6571</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C3" t="n">
-        <v>470</v>
+        <v>250</v>
       </c>
       <c r="D3" t="n">
-        <v>7562</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="C4" t="n">
-        <v>304</v>
+        <v>432</v>
       </c>
       <c r="D4" t="n">
-        <v>8261</v>
+        <v>7368</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C5" t="n">
-        <v>419</v>
+        <v>290</v>
       </c>
       <c r="D5" t="n">
-        <v>2816</v>
+        <v>7749</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="C6" t="n">
-        <v>327</v>
+        <v>104</v>
       </c>
       <c r="D6" t="n">
-        <v>1310</v>
+        <v>6066</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>85</v>
       </c>
       <c r="B7" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" t="n">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
-        <v>1220</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>145</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C8" t="n">
-        <v>451</v>
+        <v>174</v>
       </c>
       <c r="D8" t="n">
-        <v>3446</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>306</v>
       </c>
       <c r="B9" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C9" t="n">
-        <v>490</v>
+        <v>240</v>
       </c>
       <c r="D9" t="n">
-        <v>6795</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>307</v>
       </c>
       <c r="B10" t="n">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="D10" t="n">
-        <v>5619</v>
+        <v>7558</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>728</v>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>498</v>
+        <v>148</v>
       </c>
       <c r="D11" t="n">
-        <v>7513</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>809</v>
       </c>
       <c r="B12" t="n">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>492</v>
+        <v>110</v>
       </c>
       <c r="D12" t="n">
-        <v>7727</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>1555</v>
       </c>
       <c r="B13" t="n">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C13" t="n">
-        <v>109</v>
+        <v>433</v>
       </c>
       <c r="D13" t="n">
-        <v>8232</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>1662</v>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C14" t="n">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="D14" t="n">
-        <v>4989</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>1694</v>
       </c>
       <c r="B15" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D15" t="n">
-        <v>7498</v>
+        <v>8335</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>1902</v>
       </c>
       <c r="B16" t="n">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C16" t="n">
-        <v>56</v>
+        <v>333</v>
       </c>
       <c r="D16" t="n">
-        <v>6577</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>2007</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="C17" t="n">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>2008</v>
       </c>
       <c r="B18" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C18" t="n">
-        <v>261</v>
+        <v>176</v>
       </c>
       <c r="D18" t="n">
-        <v>5064</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>2009</v>
       </c>
       <c r="B19" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C19" t="n">
-        <v>229</v>
+        <v>377</v>
       </c>
       <c r="D19" t="n">
-        <v>7263</v>
+        <v>7452</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>2011</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>120</v>
+        <v>252</v>
       </c>
       <c r="D20" t="n">
-        <v>4370</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>2039</v>
       </c>
       <c r="B21" t="n">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C21" t="n">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="D21" t="n">
-        <v>4132</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>2174</v>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="C22" t="n">
-        <v>443</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
-        <v>9019</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>2405</v>
       </c>
       <c r="B23" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C23" t="n">
-        <v>75</v>
+        <v>298</v>
       </c>
       <c r="D23" t="n">
-        <v>6949</v>
+        <v>6243</v>
       </c>
     </row>
     <row r="24">
@@ -768,13 +768,13 @@
         <v>2423</v>
       </c>
       <c r="B24" t="n">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C24" t="n">
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="D24" t="n">
-        <v>7885</v>
+        <v>9029</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +782,13 @@
         <v>2455</v>
       </c>
       <c r="B25" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C25" t="n">
-        <v>430</v>
+        <v>40</v>
       </c>
       <c r="D25" t="n">
-        <v>2511</v>
+        <v>707</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>2535</v>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C26" t="n">
-        <v>451</v>
+        <v>284</v>
       </c>
       <c r="D26" t="n">
-        <v>7239</v>
+        <v>7641</v>
       </c>
     </row>
     <row r="27">
@@ -810,13 +810,13 @@
         <v>2672</v>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C27" t="n">
-        <v>450</v>
+        <v>169</v>
       </c>
       <c r="D27" t="n">
-        <v>8016</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="28">
@@ -824,13 +824,13 @@
         <v>2766</v>
       </c>
       <c r="B28" t="n">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C28" t="n">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="D28" t="n">
-        <v>5934</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="29">
@@ -838,13 +838,13 @@
         <v>2767</v>
       </c>
       <c r="B29" t="n">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C29" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D29" t="n">
-        <v>2378</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="30">
@@ -852,13 +852,13 @@
         <v>2792</v>
       </c>
       <c r="B30" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C30" t="n">
-        <v>367</v>
+        <v>139</v>
       </c>
       <c r="D30" t="n">
-        <v>4809</v>
+        <v>920</v>
       </c>
     </row>
     <row r="31">
@@ -866,13 +866,13 @@
         <v>3052</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>499</v>
+        <v>236</v>
       </c>
       <c r="D31" t="n">
-        <v>9259</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32">
@@ -880,13 +880,13 @@
         <v>3150</v>
       </c>
       <c r="B32" t="n">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>313</v>
+        <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>342</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="33">
@@ -894,13 +894,13 @@
         <v>3178</v>
       </c>
       <c r="B33" t="n">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C33" t="n">
-        <v>388</v>
+        <v>465</v>
       </c>
       <c r="D33" t="n">
-        <v>9749</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="34">
@@ -908,13 +908,13 @@
         <v>3179</v>
       </c>
       <c r="B34" t="n">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C34" t="n">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="D34" t="n">
-        <v>5631</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35">
@@ -925,10 +925,10 @@
         <v>14</v>
       </c>
       <c r="C35" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D35" t="n">
-        <v>5739</v>
+        <v>689</v>
       </c>
     </row>
     <row r="36">
@@ -936,13 +936,13 @@
         <v>3428</v>
       </c>
       <c r="B36" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>67</v>
+        <v>467</v>
       </c>
       <c r="D36" t="n">
-        <v>5298</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="37">
@@ -950,13 +950,13 @@
         <v>3438</v>
       </c>
       <c r="B37" t="n">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="D37" t="n">
-        <v>7465</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="38">
@@ -964,13 +964,13 @@
         <v>3495</v>
       </c>
       <c r="B38" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>74</v>
+        <v>424</v>
       </c>
       <c r="D38" t="n">
-        <v>1588</v>
+        <v>6763</v>
       </c>
     </row>
     <row r="39">
@@ -978,13 +978,13 @@
         <v>3710</v>
       </c>
       <c r="B39" t="n">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>404</v>
+        <v>211</v>
       </c>
       <c r="D39" t="n">
-        <v>6389</v>
+        <v>8958</v>
       </c>
     </row>
     <row r="40">
@@ -992,13 +992,13 @@
         <v>3735</v>
       </c>
       <c r="B40" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>471</v>
+        <v>434</v>
       </c>
       <c r="D40" t="n">
-        <v>2165</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="41">
@@ -1006,13 +1006,13 @@
         <v>3889</v>
       </c>
       <c r="B41" t="n">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>235</v>
+        <v>59</v>
       </c>
       <c r="D41" t="n">
-        <v>6796</v>
+        <v>8380</v>
       </c>
     </row>
     <row r="42">
@@ -1020,13 +1020,13 @@
         <v>4223</v>
       </c>
       <c r="B42" t="n">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C42" t="n">
-        <v>471</v>
+        <v>379</v>
       </c>
       <c r="D42" t="n">
-        <v>722</v>
+        <v>761</v>
       </c>
     </row>
     <row r="43">
@@ -1034,13 +1034,13 @@
         <v>4643</v>
       </c>
       <c r="B43" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="D43" t="n">
-        <v>3401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44">
@@ -1048,13 +1048,13 @@
         <v>4694</v>
       </c>
       <c r="B44" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C44" t="n">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="D44" t="n">
-        <v>6384</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="45">
@@ -1062,13 +1062,13 @@
         <v>4773</v>
       </c>
       <c r="B45" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="D45" t="n">
-        <v>8201</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="46">
@@ -1076,13 +1076,13 @@
         <v>4775</v>
       </c>
       <c r="B46" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C46" t="n">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="D46" t="n">
-        <v>9675</v>
+        <v>6495</v>
       </c>
     </row>
     <row r="47">
@@ -1090,13 +1090,13 @@
         <v>4799</v>
       </c>
       <c r="B47" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C47" t="n">
-        <v>404</v>
+        <v>57</v>
       </c>
       <c r="D47" t="n">
-        <v>199</v>
+        <v>9558</v>
       </c>
     </row>
     <row r="48">
@@ -1104,13 +1104,13 @@
         <v>5737</v>
       </c>
       <c r="B48" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C48" t="n">
-        <v>253</v>
+        <v>450</v>
       </c>
       <c r="D48" t="n">
-        <v>1870</v>
+        <v>6262</v>
       </c>
     </row>
     <row r="49">
@@ -1118,13 +1118,13 @@
         <v>6598</v>
       </c>
       <c r="B49" t="n">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C49" t="n">
-        <v>345</v>
+        <v>74</v>
       </c>
       <c r="D49" t="n">
-        <v>8358</v>
+        <v>8866</v>
       </c>
     </row>
     <row r="50">
@@ -1132,13 +1132,13 @@
         <v>7310</v>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C50" t="n">
-        <v>300</v>
+        <v>438</v>
       </c>
       <c r="D50" t="n">
-        <v>1373</v>
+        <v>9061</v>
       </c>
     </row>
     <row r="51">
@@ -1146,13 +1146,13 @@
         <v>7407</v>
       </c>
       <c r="B51" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C51" t="n">
-        <v>455</v>
+        <v>257</v>
       </c>
       <c r="D51" t="n">
-        <v>3011</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="52">
@@ -1160,13 +1160,13 @@
         <v>7571</v>
       </c>
       <c r="B52" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C52" t="n">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="D52" t="n">
-        <v>7101</v>
+        <v>555</v>
       </c>
     </row>
     <row r="53">
@@ -1174,13 +1174,13 @@
         <v>7608</v>
       </c>
       <c r="B53" t="n">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C53" t="n">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="D53" t="n">
-        <v>7388</v>
+        <v>8359</v>
       </c>
     </row>
     <row r="54">
@@ -1188,13 +1188,13 @@
         <v>7738</v>
       </c>
       <c r="B54" t="n">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C54" t="n">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="D54" t="n">
-        <v>1661</v>
+        <v>9044</v>
       </c>
     </row>
     <row r="55">
@@ -1202,13 +1202,13 @@
         <v>8495</v>
       </c>
       <c r="B55" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C55" t="n">
-        <v>88</v>
+        <v>430</v>
       </c>
       <c r="D55" t="n">
-        <v>5171</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="56">
@@ -1216,13 +1216,13 @@
         <v>8497</v>
       </c>
       <c r="B56" t="n">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C56" t="n">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="D56" t="n">
-        <v>9490</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="57">
@@ -1230,13 +1230,13 @@
         <v>8760</v>
       </c>
       <c r="B57" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C57" t="n">
-        <v>290</v>
+        <v>124</v>
       </c>
       <c r="D57" t="n">
-        <v>1284</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="58">
@@ -1244,13 +1244,13 @@
         <v>8771</v>
       </c>
       <c r="B58" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C58" t="n">
-        <v>489</v>
+        <v>126</v>
       </c>
       <c r="D58" t="n">
-        <v>2974</v>
+        <v>7883</v>
       </c>
     </row>
     <row r="59">
@@ -1258,13 +1258,13 @@
         <v>8810</v>
       </c>
       <c r="B59" t="n">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C59" t="n">
-        <v>230</v>
+        <v>125</v>
       </c>
       <c r="D59" t="n">
-        <v>3243</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="60">
@@ -1272,13 +1272,13 @@
         <v>8997</v>
       </c>
       <c r="B60" t="n">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C60" t="n">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="D60" t="n">
-        <v>3444</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="61">
@@ -1286,13 +1286,13 @@
         <v>9244</v>
       </c>
       <c r="B61" t="n">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="D61" t="n">
-        <v>7927</v>
+        <v>8596</v>
       </c>
     </row>
     <row r="62">
@@ -1300,13 +1300,13 @@
         <v>9680</v>
       </c>
       <c r="B62" t="n">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C62" t="n">
-        <v>415</v>
+        <v>293</v>
       </c>
       <c r="D62" t="n">
-        <v>5724</v>
+        <v>9866</v>
       </c>
     </row>
     <row r="63">
@@ -1314,13 +1314,13 @@
         <v>9699</v>
       </c>
       <c r="B63" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C63" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="D63" t="n">
-        <v>2398</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="64">
@@ -1328,13 +1328,13 @@
         <v>10013</v>
       </c>
       <c r="B64" t="n">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C64" t="n">
-        <v>253</v>
+        <v>466</v>
       </c>
       <c r="D64" t="n">
-        <v>5271</v>
+        <v>7356</v>
       </c>
     </row>
     <row r="65">
@@ -1342,13 +1342,13 @@
         <v>10014</v>
       </c>
       <c r="B65" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C65" t="n">
-        <v>391</v>
+        <v>246</v>
       </c>
       <c r="D65" t="n">
-        <v>9533</v>
+        <v>6988</v>
       </c>
     </row>
     <row r="66">
@@ -1356,13 +1356,13 @@
         <v>10145</v>
       </c>
       <c r="B66" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C66" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D66" t="n">
-        <v>3444</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="67">
@@ -1370,13 +1370,13 @@
         <v>10524</v>
       </c>
       <c r="B67" t="n">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C67" t="n">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D67" t="n">
-        <v>3663</v>
+        <v>6605</v>
       </c>
     </row>
     <row r="68">
@@ -1384,13 +1384,13 @@
         <v>10697</v>
       </c>
       <c r="B68" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C68" t="n">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="D68" t="n">
-        <v>5187</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="69">
@@ -1398,13 +1398,13 @@
         <v>10698</v>
       </c>
       <c r="B69" t="n">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="C69" t="n">
-        <v>129</v>
+        <v>272</v>
       </c>
       <c r="D69" t="n">
-        <v>5664</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="70">
@@ -1412,13 +1412,13 @@
         <v>10699</v>
       </c>
       <c r="B70" t="n">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C70" t="n">
-        <v>63</v>
+        <v>275</v>
       </c>
       <c r="D70" t="n">
-        <v>6291</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="71">
@@ -1426,13 +1426,13 @@
         <v>10700</v>
       </c>
       <c r="B71" t="n">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="C71" t="n">
-        <v>204</v>
+        <v>282</v>
       </c>
       <c r="D71" t="n">
-        <v>1003</v>
+        <v>8652</v>
       </c>
     </row>
     <row r="72">
@@ -1440,13 +1440,13 @@
         <v>10728</v>
       </c>
       <c r="B72" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C72" t="n">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="D72" t="n">
-        <v>8395</v>
+        <v>9983</v>
       </c>
     </row>
     <row r="73">
@@ -1454,3331 +1454,3569 @@
         <v>10791</v>
       </c>
       <c r="B73" t="n">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="C73" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D73" t="n">
-        <v>3908</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>11813</v>
+        <v>10809</v>
       </c>
       <c r="B74" t="n">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="C74" t="n">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D74" t="n">
-        <v>6210</v>
+        <v>5499</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>12405</v>
+        <v>11813</v>
       </c>
       <c r="B75" t="n">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C75" t="n">
-        <v>370</v>
+        <v>30</v>
       </c>
       <c r="D75" t="n">
-        <v>2017</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>12464</v>
+        <v>12405</v>
       </c>
       <c r="B76" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C76" t="n">
-        <v>264</v>
+        <v>385</v>
       </c>
       <c r="D76" t="n">
-        <v>8798</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>12465</v>
+        <v>12464</v>
       </c>
       <c r="B77" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C77" t="n">
-        <v>474</v>
+        <v>151</v>
       </c>
       <c r="D77" t="n">
-        <v>4955</v>
+        <v>7877</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>12563</v>
+        <v>12465</v>
       </c>
       <c r="B78" t="n">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C78" t="n">
-        <v>173</v>
+        <v>360</v>
       </c>
       <c r="D78" t="n">
-        <v>6384</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>12766</v>
+        <v>12563</v>
       </c>
       <c r="B79" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C79" t="n">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="D79" t="n">
-        <v>6674</v>
+        <v>8602</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>13017</v>
+        <v>12766</v>
       </c>
       <c r="B80" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C80" t="n">
-        <v>73</v>
+        <v>381</v>
       </c>
       <c r="D80" t="n">
-        <v>9301</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>13454</v>
+        <v>13017</v>
       </c>
       <c r="B81" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C81" t="n">
-        <v>346</v>
+        <v>154</v>
       </c>
       <c r="D81" t="n">
-        <v>6420</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>14032</v>
+        <v>13150</v>
       </c>
       <c r="B82" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C82" t="n">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5687</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>15039</v>
+        <v>13454</v>
       </c>
       <c r="B83" t="n">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C83" t="n">
-        <v>363</v>
+        <v>139</v>
       </c>
       <c r="D83" t="n">
-        <v>5532</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>15045</v>
+        <v>14032</v>
       </c>
       <c r="B84" t="n">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="C84" t="n">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="D84" t="n">
-        <v>2462</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>15072</v>
+        <v>14775</v>
       </c>
       <c r="B85" t="n">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C85" t="n">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="D85" t="n">
-        <v>5609</v>
+        <v>7189</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>15073</v>
+        <v>15039</v>
       </c>
       <c r="B86" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C86" t="n">
-        <v>471</v>
+        <v>169</v>
       </c>
       <c r="D86" t="n">
-        <v>3609</v>
+        <v>346</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>15074</v>
+        <v>15045</v>
       </c>
       <c r="B87" t="n">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C87" t="n">
-        <v>344</v>
+        <v>119</v>
       </c>
       <c r="D87" t="n">
-        <v>4289</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>15077</v>
+        <v>15072</v>
       </c>
       <c r="B88" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C88" t="n">
-        <v>456</v>
+        <v>269</v>
       </c>
       <c r="D88" t="n">
-        <v>5391</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>15081</v>
+        <v>15073</v>
       </c>
       <c r="B89" t="n">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C89" t="n">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="D89" t="n">
-        <v>5136</v>
+        <v>5304</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>15145</v>
+        <v>15074</v>
       </c>
       <c r="B90" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C90" t="n">
-        <v>62</v>
+        <v>386</v>
       </c>
       <c r="D90" t="n">
-        <v>4049</v>
+        <v>7728</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>15176</v>
+        <v>15077</v>
       </c>
       <c r="B91" t="n">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C91" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D91" t="n">
-        <v>5784</v>
+        <v>5324</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>15177</v>
+        <v>15081</v>
       </c>
       <c r="B92" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C92" t="n">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="D92" t="n">
-        <v>9360</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>15178</v>
+        <v>15145</v>
       </c>
       <c r="B93" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C93" t="n">
-        <v>313</v>
+        <v>153</v>
       </c>
       <c r="D93" t="n">
-        <v>7138</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>15179</v>
+        <v>15176</v>
       </c>
       <c r="B94" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C94" t="n">
-        <v>382</v>
+        <v>307</v>
       </c>
       <c r="D94" t="n">
-        <v>8102</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>15757</v>
+        <v>15177</v>
       </c>
       <c r="B95" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C95" t="n">
-        <v>152</v>
+        <v>358</v>
       </c>
       <c r="D95" t="n">
-        <v>3341</v>
+        <v>6927</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>15759</v>
+        <v>15178</v>
       </c>
       <c r="B96" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C96" t="n">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="D96" t="n">
-        <v>5390</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>16164</v>
+        <v>15179</v>
       </c>
       <c r="B97" t="n">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C97" t="n">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D97" t="n">
-        <v>7820</v>
+        <v>7883</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>16165</v>
+        <v>15757</v>
       </c>
       <c r="B98" t="n">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C98" t="n">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="D98" t="n">
-        <v>3650</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>16304</v>
+        <v>15759</v>
       </c>
       <c r="B99" t="n">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="C99" t="n">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>6382</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>16321</v>
+        <v>16164</v>
       </c>
       <c r="B100" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C100" t="n">
-        <v>454</v>
+        <v>40</v>
       </c>
       <c r="D100" t="n">
-        <v>1586</v>
+        <v>7693</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>16952</v>
+        <v>16165</v>
       </c>
       <c r="B101" t="n">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C101" t="n">
-        <v>437</v>
+        <v>203</v>
       </c>
       <c r="D101" t="n">
-        <v>4539</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>16973</v>
+        <v>16304</v>
       </c>
       <c r="B102" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C102" t="n">
-        <v>485</v>
+        <v>222</v>
       </c>
       <c r="D102" t="n">
-        <v>9494</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>16974</v>
+        <v>16321</v>
       </c>
       <c r="B103" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C103" t="n">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D103" t="n">
-        <v>8154</v>
+        <v>6101</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>16975</v>
+        <v>16952</v>
       </c>
       <c r="B104" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="C104" t="n">
-        <v>449</v>
+        <v>185</v>
       </c>
       <c r="D104" t="n">
-        <v>5484</v>
+        <v>5782</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>16976</v>
+        <v>16973</v>
       </c>
       <c r="B105" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C105" t="n">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="D105" t="n">
-        <v>8837</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>16999</v>
+        <v>16974</v>
       </c>
       <c r="B106" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C106" t="n">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="D106" t="n">
-        <v>2564</v>
+        <v>329</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>17165</v>
+        <v>16975</v>
       </c>
       <c r="B107" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C107" t="n">
-        <v>378</v>
+        <v>267</v>
       </c>
       <c r="D107" t="n">
-        <v>9461</v>
+        <v>7578</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>17197</v>
+        <v>16976</v>
       </c>
       <c r="B108" t="n">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C108" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D108" t="n">
-        <v>5025</v>
+        <v>9340</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>17199</v>
+        <v>16999</v>
       </c>
       <c r="B109" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C109" t="n">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="D109" t="n">
-        <v>8252</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>17200</v>
+        <v>17165</v>
       </c>
       <c r="B110" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C110" t="n">
-        <v>154</v>
+        <v>479</v>
       </c>
       <c r="D110" t="n">
-        <v>104</v>
+        <v>9726</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>17298</v>
+        <v>17197</v>
       </c>
       <c r="B111" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C111" t="n">
-        <v>88</v>
+        <v>308</v>
       </c>
       <c r="D111" t="n">
-        <v>1467</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>17302</v>
+        <v>17199</v>
       </c>
       <c r="B112" t="n">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C112" t="n">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="D112" t="n">
-        <v>4119</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>17305</v>
+        <v>17200</v>
       </c>
       <c r="B113" t="n">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C113" t="n">
-        <v>30</v>
+        <v>410</v>
       </c>
       <c r="D113" t="n">
-        <v>429</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>17307</v>
+        <v>17298</v>
       </c>
       <c r="B114" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C114" t="n">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="D114" t="n">
-        <v>9842</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>17310</v>
+        <v>17302</v>
       </c>
       <c r="B115" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C115" t="n">
-        <v>466</v>
+        <v>133</v>
       </c>
       <c r="D115" t="n">
-        <v>3317</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>17312</v>
+        <v>17305</v>
       </c>
       <c r="B116" t="n">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C116" t="n">
-        <v>487</v>
+        <v>319</v>
       </c>
       <c r="D116" t="n">
-        <v>4616</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>17313</v>
+        <v>17307</v>
       </c>
       <c r="B117" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C117" t="n">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="D117" t="n">
-        <v>1455</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>17316</v>
+        <v>17310</v>
       </c>
       <c r="B118" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C118" t="n">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c r="D118" t="n">
-        <v>7142</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>17414</v>
+        <v>17312</v>
       </c>
       <c r="B119" t="n">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C119" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D119" t="n">
-        <v>632</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>17424</v>
+        <v>17313</v>
       </c>
       <c r="B120" t="n">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="C120" t="n">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="D120" t="n">
-        <v>4336</v>
+        <v>7222</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>17425</v>
+        <v>17316</v>
       </c>
       <c r="B121" t="n">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C121" t="n">
-        <v>461</v>
+        <v>110</v>
       </c>
       <c r="D121" t="n">
-        <v>5470</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>17535</v>
+        <v>17414</v>
       </c>
       <c r="B122" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C122" t="n">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="D122" t="n">
-        <v>5049</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>17536</v>
+        <v>17424</v>
       </c>
       <c r="B123" t="n">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C123" t="n">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="D123" t="n">
-        <v>9196</v>
+        <v>8984</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>17537</v>
+        <v>17425</v>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C124" t="n">
-        <v>470</v>
+        <v>352</v>
       </c>
       <c r="D124" t="n">
-        <v>3149</v>
+        <v>7686</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>17538</v>
+        <v>17535</v>
       </c>
       <c r="B125" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C125" t="n">
-        <v>355</v>
+        <v>31</v>
       </c>
       <c r="D125" t="n">
-        <v>9355</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>17539</v>
+        <v>17536</v>
       </c>
       <c r="B126" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C126" t="n">
-        <v>229</v>
+        <v>424</v>
       </c>
       <c r="D126" t="n">
-        <v>9855</v>
+        <v>9491</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>17540</v>
+        <v>17537</v>
       </c>
       <c r="B127" t="n">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C127" t="n">
-        <v>43</v>
+        <v>363</v>
       </c>
       <c r="D127" t="n">
-        <v>403</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>17541</v>
+        <v>17538</v>
       </c>
       <c r="B128" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C128" t="n">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="D128" t="n">
-        <v>7030</v>
+        <v>335</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>17542</v>
+        <v>17539</v>
       </c>
       <c r="B129" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C129" t="n">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="D129" t="n">
-        <v>2906</v>
+        <v>829</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>17543</v>
+        <v>17540</v>
       </c>
       <c r="B130" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C130" t="n">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="D130" t="n">
-        <v>7647</v>
+        <v>6501</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>17544</v>
+        <v>17541</v>
       </c>
       <c r="B131" t="n">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C131" t="n">
-        <v>319</v>
+        <v>469</v>
       </c>
       <c r="D131" t="n">
-        <v>5777</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>17545</v>
+        <v>17542</v>
       </c>
       <c r="B132" t="n">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C132" t="n">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D132" t="n">
-        <v>3007</v>
+        <v>6188</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>17546</v>
+        <v>17543</v>
       </c>
       <c r="B133" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C133" t="n">
-        <v>40</v>
+        <v>367</v>
       </c>
       <c r="D133" t="n">
-        <v>8023</v>
+        <v>692</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>17547</v>
+        <v>17544</v>
       </c>
       <c r="B134" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C134" t="n">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="D134" t="n">
-        <v>8515</v>
+        <v>6806</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>17548</v>
+        <v>17545</v>
       </c>
       <c r="B135" t="n">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C135" t="n">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="D135" t="n">
-        <v>2077</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>17549</v>
+        <v>17546</v>
       </c>
       <c r="B136" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C136" t="n">
-        <v>358</v>
+        <v>460</v>
       </c>
       <c r="D136" t="n">
-        <v>3945</v>
+        <v>6245</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>17551</v>
+        <v>17547</v>
       </c>
       <c r="B137" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C137" t="n">
-        <v>435</v>
+        <v>290</v>
       </c>
       <c r="D137" t="n">
-        <v>833</v>
+        <v>6103</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>17552</v>
+        <v>17548</v>
       </c>
       <c r="B138" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C138" t="n">
-        <v>462</v>
+        <v>388</v>
       </c>
       <c r="D138" t="n">
-        <v>1233</v>
+        <v>7152</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>17553</v>
+        <v>17549</v>
       </c>
       <c r="B139" t="n">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C139" t="n">
-        <v>340</v>
+        <v>60</v>
       </c>
       <c r="D139" t="n">
-        <v>746</v>
+        <v>9951</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>17557</v>
+        <v>17551</v>
       </c>
       <c r="B140" t="n">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="C140" t="n">
-        <v>367</v>
+        <v>187</v>
       </c>
       <c r="D140" t="n">
-        <v>9129</v>
+        <v>6513</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>17619</v>
+        <v>17552</v>
       </c>
       <c r="B141" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C141" t="n">
-        <v>212</v>
+        <v>408</v>
       </c>
       <c r="D141" t="n">
-        <v>7122</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>17666</v>
+        <v>17553</v>
       </c>
       <c r="B142" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C142" t="n">
-        <v>350</v>
+        <v>49</v>
       </c>
       <c r="D142" t="n">
-        <v>545</v>
+        <v>679</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>18056</v>
+        <v>17557</v>
       </c>
       <c r="B143" t="n">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="C143" t="n">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="D143" t="n">
-        <v>8376</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>18810</v>
+        <v>17619</v>
       </c>
       <c r="B144" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C144" t="n">
-        <v>387</v>
+        <v>218</v>
       </c>
       <c r="D144" t="n">
-        <v>2660</v>
+        <v>5948</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>19244</v>
+        <v>17666</v>
       </c>
       <c r="B145" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C145" t="n">
-        <v>69</v>
+        <v>320</v>
       </c>
       <c r="D145" t="n">
-        <v>8046</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>19253</v>
+        <v>18056</v>
       </c>
       <c r="B146" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C146" t="n">
-        <v>443</v>
+        <v>310</v>
       </c>
       <c r="D146" t="n">
-        <v>2728</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>19680</v>
+        <v>18810</v>
       </c>
       <c r="B147" t="n">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="C147" t="n">
-        <v>60</v>
+        <v>364</v>
       </c>
       <c r="D147" t="n">
-        <v>7222</v>
+        <v>6869</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>20274</v>
+        <v>19244</v>
       </c>
       <c r="B148" t="n">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="C148" t="n">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="D148" t="n">
-        <v>4744</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>20276</v>
+        <v>19253</v>
       </c>
       <c r="B149" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C149" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D149" t="n">
-        <v>237</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>20277</v>
+        <v>19680</v>
       </c>
       <c r="B150" t="n">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C150" t="n">
-        <v>390</v>
+        <v>131</v>
       </c>
       <c r="D150" t="n">
-        <v>716</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>20278</v>
+        <v>20274</v>
       </c>
       <c r="B151" t="n">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="C151" t="n">
-        <v>131</v>
+        <v>439</v>
       </c>
       <c r="D151" t="n">
-        <v>4495</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>20279</v>
+        <v>20276</v>
       </c>
       <c r="B152" t="n">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="C152" t="n">
-        <v>325</v>
+        <v>434</v>
       </c>
       <c r="D152" t="n">
-        <v>2830</v>
+        <v>5786</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>20645</v>
+        <v>20277</v>
       </c>
       <c r="B153" t="n">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C153" t="n">
-        <v>403</v>
+        <v>230</v>
       </c>
       <c r="D153" t="n">
-        <v>2561</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>20698</v>
+        <v>20278</v>
       </c>
       <c r="B154" t="n">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C154" t="n">
-        <v>221</v>
+        <v>106</v>
       </c>
       <c r="D154" t="n">
-        <v>7225</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>21122</v>
+        <v>20279</v>
       </c>
       <c r="B155" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C155" t="n">
-        <v>102</v>
+        <v>373</v>
       </c>
       <c r="D155" t="n">
-        <v>4031</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>21365</v>
+        <v>20645</v>
       </c>
       <c r="B156" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C156" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D156" t="n">
-        <v>207</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>22247</v>
+        <v>20698</v>
       </c>
       <c r="B157" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C157" t="n">
-        <v>305</v>
+        <v>70</v>
       </c>
       <c r="D157" t="n">
-        <v>8338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>22248</v>
+        <v>20700</v>
       </c>
       <c r="B158" t="n">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C158" t="n">
-        <v>251</v>
+        <v>349</v>
       </c>
       <c r="D158" t="n">
-        <v>5322</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>22464</v>
+        <v>21122</v>
       </c>
       <c r="B159" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C159" t="n">
-        <v>38</v>
+        <v>483</v>
       </c>
       <c r="D159" t="n">
-        <v>6766</v>
+        <v>6326</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>22648</v>
+        <v>21365</v>
       </c>
       <c r="B160" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C160" t="n">
-        <v>480</v>
+        <v>203</v>
       </c>
       <c r="D160" t="n">
-        <v>3178</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>22649</v>
+        <v>22247</v>
       </c>
       <c r="B161" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C161" t="n">
-        <v>396</v>
+        <v>301</v>
       </c>
       <c r="D161" t="n">
-        <v>6669</v>
+        <v>746</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>22876</v>
+        <v>22248</v>
       </c>
       <c r="B162" t="n">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="C162" t="n">
-        <v>403</v>
+        <v>67</v>
       </c>
       <c r="D162" t="n">
-        <v>5665</v>
+        <v>8937</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>22880</v>
+        <v>22464</v>
       </c>
       <c r="B163" t="n">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="C163" t="n">
-        <v>428</v>
+        <v>130</v>
       </c>
       <c r="D163" t="n">
-        <v>4702</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>22881</v>
+        <v>22648</v>
       </c>
       <c r="B164" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C164" t="n">
-        <v>246</v>
+        <v>476</v>
       </c>
       <c r="D164" t="n">
-        <v>9300</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>22884</v>
+        <v>22649</v>
       </c>
       <c r="B165" t="n">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="C165" t="n">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="D165" t="n">
-        <v>1865</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>22889</v>
+        <v>22876</v>
       </c>
       <c r="B166" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C166" t="n">
-        <v>302</v>
+        <v>125</v>
       </c>
       <c r="D166" t="n">
-        <v>3902</v>
+        <v>9978</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>22891</v>
+        <v>22880</v>
       </c>
       <c r="B167" t="n">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="C167" t="n">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="D167" t="n">
-        <v>4204</v>
+        <v>5298</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>22908</v>
+        <v>22881</v>
       </c>
       <c r="B168" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C168" t="n">
-        <v>444</v>
+        <v>57</v>
       </c>
       <c r="D168" t="n">
-        <v>4533</v>
+        <v>8107</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>22920</v>
+        <v>22884</v>
       </c>
       <c r="B169" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C169" t="n">
-        <v>57</v>
+        <v>362</v>
       </c>
       <c r="D169" t="n">
-        <v>5250</v>
+        <v>9862</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>22921</v>
+        <v>22889</v>
       </c>
       <c r="B170" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="C170" t="n">
-        <v>376</v>
+        <v>148</v>
       </c>
       <c r="D170" t="n">
-        <v>3289</v>
+        <v>7703</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>22922</v>
+        <v>22891</v>
       </c>
       <c r="B171" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C171" t="n">
-        <v>388</v>
+        <v>238</v>
       </c>
       <c r="D171" t="n">
-        <v>9802</v>
+        <v>7988</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>22923</v>
+        <v>22908</v>
       </c>
       <c r="B172" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C172" t="n">
-        <v>420</v>
+        <v>67</v>
       </c>
       <c r="D172" t="n">
-        <v>9240</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>22931</v>
+        <v>22920</v>
       </c>
       <c r="B173" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C173" t="n">
-        <v>475</v>
+        <v>268</v>
       </c>
       <c r="D173" t="n">
-        <v>4583</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>22996</v>
+        <v>22921</v>
       </c>
       <c r="B174" t="n">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C174" t="n">
-        <v>431</v>
+        <v>470</v>
       </c>
       <c r="D174" t="n">
-        <v>1360</v>
+        <v>5727</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>23006</v>
+        <v>22922</v>
       </c>
       <c r="B175" t="n">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C175" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="D175" t="n">
-        <v>5826</v>
+        <v>8601</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>23017</v>
+        <v>22923</v>
       </c>
       <c r="B176" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C176" t="n">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="D176" t="n">
-        <v>4586</v>
+        <v>8643</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>23052</v>
+        <v>22931</v>
       </c>
       <c r="B177" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C177" t="n">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D177" t="n">
-        <v>5359</v>
+        <v>6172</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>23053</v>
+        <v>22996</v>
       </c>
       <c r="B178" t="n">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C178" t="n">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D178" t="n">
-        <v>199</v>
+        <v>8034</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>23056</v>
+        <v>23006</v>
       </c>
       <c r="B179" t="n">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C179" t="n">
-        <v>337</v>
+        <v>50</v>
       </c>
       <c r="D179" t="n">
-        <v>8632</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>23081</v>
+        <v>23017</v>
       </c>
       <c r="B180" t="n">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="C180" t="n">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="D180" t="n">
-        <v>8590</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>23083</v>
+        <v>23052</v>
       </c>
       <c r="B181" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C181" t="n">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="D181" t="n">
-        <v>4338</v>
+        <v>8475</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>23140</v>
+        <v>23053</v>
       </c>
       <c r="B182" t="n">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C182" t="n">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="D182" t="n">
-        <v>4623</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>23143</v>
+        <v>23056</v>
       </c>
       <c r="B183" t="n">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C183" t="n">
-        <v>9</v>
+        <v>404</v>
       </c>
       <c r="D183" t="n">
-        <v>5460</v>
+        <v>8516</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>23144</v>
+        <v>23081</v>
       </c>
       <c r="B184" t="n">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C184" t="n">
-        <v>426</v>
+        <v>367</v>
       </c>
       <c r="D184" t="n">
-        <v>1946</v>
+        <v>7557</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>23145</v>
+        <v>23083</v>
       </c>
       <c r="B185" t="n">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="C185" t="n">
-        <v>325</v>
+        <v>53</v>
       </c>
       <c r="D185" t="n">
-        <v>899</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>23153</v>
+        <v>23140</v>
       </c>
       <c r="B186" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C186" t="n">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D186" t="n">
-        <v>1409</v>
+        <v>9488</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>23154</v>
+        <v>23143</v>
       </c>
       <c r="B187" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C187" t="n">
-        <v>275</v>
+        <v>28</v>
       </c>
       <c r="D187" t="n">
-        <v>282</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>23155</v>
+        <v>23144</v>
       </c>
       <c r="B188" t="n">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C188" t="n">
-        <v>477</v>
+        <v>29</v>
       </c>
       <c r="D188" t="n">
-        <v>4625</v>
+        <v>7939</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>23156</v>
+        <v>23145</v>
       </c>
       <c r="B189" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C189" t="n">
-        <v>280</v>
+        <v>451</v>
       </c>
       <c r="D189" t="n">
-        <v>1160</v>
+        <v>983</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>23215</v>
+        <v>23153</v>
       </c>
       <c r="B190" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C190" t="n">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D190" t="n">
-        <v>1980</v>
+        <v>317</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>23569</v>
+        <v>23154</v>
       </c>
       <c r="B191" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C191" t="n">
-        <v>109</v>
+        <v>401</v>
       </c>
       <c r="D191" t="n">
-        <v>1279</v>
+        <v>596</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>23759</v>
+        <v>23155</v>
       </c>
       <c r="B192" t="n">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C192" t="n">
-        <v>467</v>
+        <v>189</v>
       </c>
       <c r="D192" t="n">
-        <v>6283</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>24324</v>
+        <v>23156</v>
       </c>
       <c r="B193" t="n">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C193" t="n">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="D193" t="n">
-        <v>1565</v>
+        <v>9150</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>25145</v>
+        <v>23215</v>
       </c>
       <c r="B194" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C194" t="n">
-        <v>352</v>
+        <v>427</v>
       </c>
       <c r="D194" t="n">
-        <v>5301</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>25179</v>
+        <v>23569</v>
       </c>
       <c r="B195" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C195" t="n">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D195" t="n">
-        <v>7337</v>
+        <v>9027</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>25759</v>
+        <v>23759</v>
       </c>
       <c r="B196" t="n">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="C196" t="n">
-        <v>331</v>
+        <v>184</v>
       </c>
       <c r="D196" t="n">
-        <v>8317</v>
+        <v>8053</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>26974</v>
+        <v>24324</v>
       </c>
       <c r="B197" t="n">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="C197" t="n">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D197" t="n">
-        <v>8204</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>27538</v>
+        <v>25074</v>
       </c>
       <c r="B198" t="n">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C198" t="n">
-        <v>412</v>
+        <v>213</v>
       </c>
       <c r="D198" t="n">
-        <v>2630</v>
+        <v>9983</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>27540</v>
+        <v>25145</v>
       </c>
       <c r="B199" t="n">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C199" t="n">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="D199" t="n">
-        <v>6259</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>27688</v>
+        <v>25177</v>
       </c>
       <c r="B200" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C200" t="n">
-        <v>434</v>
+        <v>324</v>
       </c>
       <c r="D200" t="n">
-        <v>2356</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>31122</v>
+        <v>25179</v>
       </c>
       <c r="B201" t="n">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C201" t="n">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="D201" t="n">
-        <v>2333</v>
+        <v>6289</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>31197</v>
+        <v>25759</v>
       </c>
       <c r="B202" t="n">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="C202" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D202" t="n">
-        <v>4460</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>31365</v>
+        <v>26974</v>
       </c>
       <c r="B203" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C203" t="n">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="D203" t="n">
-        <v>7125</v>
+        <v>8426</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>31828</v>
+        <v>26999</v>
       </c>
       <c r="B204" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C204" t="n">
-        <v>356</v>
+        <v>99</v>
       </c>
       <c r="D204" t="n">
-        <v>4203</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>32891</v>
+        <v>27414</v>
       </c>
       <c r="B205" t="n">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C205" t="n">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="D205" t="n">
-        <v>9074</v>
+        <v>6561</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>32908</v>
+        <v>27538</v>
       </c>
       <c r="B206" t="n">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="C206" t="n">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="D206" t="n">
-        <v>8274</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>33056</v>
+        <v>27540</v>
       </c>
       <c r="B207" t="n">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C207" t="n">
-        <v>456</v>
+        <v>204</v>
       </c>
       <c r="D207" t="n">
-        <v>7975</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>33143</v>
+        <v>27543</v>
       </c>
       <c r="B208" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C208" t="n">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="D208" t="n">
-        <v>7777</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>33144</v>
+        <v>27688</v>
       </c>
       <c r="B209" t="n">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C209" t="n">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D209" t="n">
-        <v>4959</v>
+        <v>7493</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>33154</v>
+        <v>30277</v>
       </c>
       <c r="B210" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C210" t="n">
-        <v>386</v>
+        <v>327</v>
       </c>
       <c r="D210" t="n">
-        <v>1661</v>
+        <v>923</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>33155</v>
+        <v>31122</v>
       </c>
       <c r="B211" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C211" t="n">
-        <v>201</v>
+        <v>441</v>
       </c>
       <c r="D211" t="n">
-        <v>2400</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>33215</v>
+        <v>31197</v>
       </c>
       <c r="B212" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C212" t="n">
-        <v>71</v>
+        <v>290</v>
       </c>
       <c r="D212" t="n">
-        <v>9015</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>34075</v>
+        <v>31365</v>
       </c>
       <c r="B213" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C213" t="n">
-        <v>409</v>
+        <v>120</v>
       </c>
       <c r="D213" t="n">
-        <v>4831</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>37688</v>
+        <v>31828</v>
       </c>
       <c r="B214" t="n">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C214" t="n">
-        <v>296</v>
+        <v>355</v>
       </c>
       <c r="D214" t="n">
-        <v>6397</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>37929</v>
+        <v>32880</v>
       </c>
       <c r="B215" t="n">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C215" t="n">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="D215" t="n">
-        <v>4822</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>41197</v>
+        <v>32891</v>
       </c>
       <c r="B216" t="n">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C216" t="n">
-        <v>254</v>
+        <v>171</v>
       </c>
       <c r="D216" t="n">
-        <v>8289</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>41366</v>
+        <v>32908</v>
       </c>
       <c r="B217" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C217" t="n">
-        <v>310</v>
+        <v>222</v>
       </c>
       <c r="D217" t="n">
-        <v>6723</v>
+        <v>9728</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>41828</v>
+        <v>32996</v>
       </c>
       <c r="B218" t="n">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="C218" t="n">
-        <v>47</v>
+        <v>216</v>
       </c>
       <c r="D218" t="n">
-        <v>3115</v>
+        <v>627</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>43923</v>
+        <v>33056</v>
       </c>
       <c r="B219" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C219" t="n">
-        <v>349</v>
+        <v>12</v>
       </c>
       <c r="D219" t="n">
-        <v>3297</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>43924</v>
+        <v>33143</v>
       </c>
       <c r="B220" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C220" t="n">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="D220" t="n">
-        <v>2131</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>43972</v>
+        <v>33144</v>
       </c>
       <c r="B221" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C221" t="n">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="D221" t="n">
-        <v>1950</v>
+        <v>7108</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>46605</v>
+        <v>33154</v>
       </c>
       <c r="B222" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C222" t="n">
-        <v>496</v>
+        <v>408</v>
       </c>
       <c r="D222" t="n">
-        <v>3751</v>
+        <v>8497</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>50957</v>
+        <v>33155</v>
       </c>
       <c r="B223" t="n">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C223" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D223" t="n">
-        <v>8715</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>53972</v>
+        <v>33156</v>
       </c>
       <c r="B224" t="n">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C224" t="n">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="D224" t="n">
-        <v>506</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>56605</v>
+        <v>33215</v>
       </c>
       <c r="B225" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C225" t="n">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D225" t="n">
-        <v>458</v>
+        <v>8464</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>60957</v>
+        <v>34075</v>
       </c>
       <c r="B226" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C226" t="n">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D226" t="n">
-        <v>2978</v>
+        <v>840</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>63793</v>
+        <v>37688</v>
       </c>
       <c r="B227" t="n">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="C227" t="n">
-        <v>482</v>
+        <v>25</v>
       </c>
       <c r="D227" t="n">
-        <v>2029</v>
+        <v>6748</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>67289</v>
+        <v>37929</v>
       </c>
       <c r="B228" t="n">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C228" t="n">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="D228" t="n">
-        <v>2340</v>
+        <v>9721</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>77693</v>
+        <v>41197</v>
       </c>
       <c r="B229" t="n">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="C229" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D229" t="n">
-        <v>7747</v>
+        <v>6708</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>82609</v>
+        <v>41366</v>
       </c>
       <c r="B230" t="n">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C230" t="n">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="D230" t="n">
-        <v>1258</v>
+        <v>872</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>83755</v>
+        <v>41828</v>
       </c>
       <c r="B231" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C231" t="n">
-        <v>410</v>
+        <v>149</v>
       </c>
       <c r="D231" t="n">
-        <v>3524</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>88313</v>
+        <v>43923</v>
       </c>
       <c r="B232" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D232" t="n">
-        <v>6446</v>
+        <v>9561</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>90849</v>
+        <v>43924</v>
       </c>
       <c r="B233" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C233" t="n">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="D233" t="n">
-        <v>1727</v>
+        <v>8830</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>91137</v>
+        <v>43972</v>
       </c>
       <c r="B234" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C234" t="n">
-        <v>85</v>
+        <v>269</v>
       </c>
       <c r="D234" t="n">
-        <v>9459</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>92609</v>
+        <v>44075</v>
       </c>
       <c r="B235" t="n">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C235" t="n">
-        <v>445</v>
+        <v>101</v>
       </c>
       <c r="D235" t="n">
-        <v>4287</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>93755</v>
+        <v>46605</v>
       </c>
       <c r="B236" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C236" t="n">
-        <v>362</v>
+        <v>255</v>
       </c>
       <c r="D236" t="n">
-        <v>1474</v>
+        <v>7212</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>129493</v>
+        <v>50957</v>
       </c>
       <c r="B237" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C237" t="n">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="D237" t="n">
-        <v>5763</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>149421</v>
+        <v>53972</v>
       </c>
       <c r="B238" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C238" t="n">
-        <v>103</v>
+        <v>316</v>
       </c>
       <c r="D238" t="n">
-        <v>2533</v>
+        <v>6302</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>149422</v>
+        <v>56605</v>
       </c>
       <c r="B239" t="n">
         <v>99</v>
       </c>
       <c r="C239" t="n">
-        <v>402</v>
+        <v>204</v>
       </c>
       <c r="D239" t="n">
-        <v>7709</v>
+        <v>817</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>149423</v>
+        <v>60957</v>
       </c>
       <c r="B240" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C240" t="n">
-        <v>375</v>
+        <v>123</v>
       </c>
       <c r="D240" t="n">
-        <v>2121</v>
+        <v>9729</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>149424</v>
+        <v>63793</v>
       </c>
       <c r="B241" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C241" t="n">
-        <v>168</v>
+        <v>451</v>
       </c>
       <c r="D241" t="n">
-        <v>6205</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>160858</v>
+        <v>67289</v>
       </c>
       <c r="B242" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C242" t="n">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="D242" t="n">
-        <v>6529</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>160859</v>
+        <v>77693</v>
       </c>
       <c r="B243" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C243" t="n">
-        <v>257</v>
+        <v>375</v>
       </c>
       <c r="D243" t="n">
-        <v>2459</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>161288</v>
+        <v>82609</v>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C244" t="n">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="D244" t="n">
-        <v>679</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>197866</v>
+        <v>83755</v>
       </c>
       <c r="B245" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C245" t="n">
-        <v>29</v>
+        <v>297</v>
       </c>
       <c r="D245" t="n">
-        <v>4273</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>197867</v>
+        <v>88313</v>
       </c>
       <c r="B246" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C246" t="n">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="D246" t="n">
-        <v>8784</v>
+        <v>981</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>206139</v>
+        <v>90849</v>
       </c>
       <c r="B247" t="n">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C247" t="n">
-        <v>58</v>
+        <v>221</v>
       </c>
       <c r="D247" t="n">
-        <v>9836</v>
+        <v>543</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>206141</v>
+        <v>91137</v>
       </c>
       <c r="B248" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C248" t="n">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="D248" t="n">
-        <v>7952</v>
+        <v>530</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>206142</v>
+        <v>92609</v>
       </c>
       <c r="B249" t="n">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="C249" t="n">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="D249" t="n">
-        <v>1564</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>206143</v>
+        <v>93755</v>
       </c>
       <c r="B250" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C250" t="n">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="D250" t="n">
-        <v>3678</v>
+        <v>6657</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>206144</v>
+        <v>129493</v>
       </c>
       <c r="B251" t="n">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C251" t="n">
-        <v>195</v>
+        <v>8</v>
       </c>
       <c r="D251" t="n">
-        <v>6583</v>
+        <v>884</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>206145</v>
+        <v>149421</v>
       </c>
       <c r="B252" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C252" t="n">
-        <v>334</v>
+        <v>437</v>
       </c>
       <c r="D252" t="n">
-        <v>1722</v>
+        <v>9067</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>216143</v>
+        <v>149422</v>
       </c>
       <c r="B253" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C253" t="n">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="D253" t="n">
-        <v>893</v>
+        <v>6502</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>227807</v>
+        <v>149423</v>
       </c>
       <c r="B254" t="n">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C254" t="n">
-        <v>442</v>
+        <v>301</v>
       </c>
       <c r="D254" t="n">
-        <v>1419</v>
+        <v>835</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>227808</v>
+        <v>149424</v>
       </c>
       <c r="B255" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C255" t="n">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="D255" t="n">
-        <v>3265</v>
+        <v>4848</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>227809</v>
+        <v>160858</v>
       </c>
       <c r="B256" t="n">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="C256" t="n">
-        <v>470</v>
+        <v>155</v>
       </c>
       <c r="D256" t="n">
-        <v>1608</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>227810</v>
+        <v>160859</v>
       </c>
       <c r="B257" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C257" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D257" t="n">
-        <v>8435</v>
+        <v>9374</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>227811</v>
+        <v>161288</v>
       </c>
       <c r="B258" t="n">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="C258" t="n">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="D258" t="n">
-        <v>5313</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>227812</v>
+        <v>171288</v>
       </c>
       <c r="B259" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C259" t="n">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D259" t="n">
-        <v>2762</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>227898</v>
+        <v>197866</v>
       </c>
       <c r="B260" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C260" t="n">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D260" t="n">
-        <v>864</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>227899</v>
+        <v>197867</v>
       </c>
       <c r="B261" t="n">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C261" t="n">
-        <v>229</v>
+        <v>462</v>
       </c>
       <c r="D261" t="n">
-        <v>7548</v>
+        <v>5424</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>227900</v>
+        <v>206139</v>
       </c>
       <c r="B262" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C262" t="n">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="D262" t="n">
-        <v>3494</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>234151</v>
+        <v>206141</v>
       </c>
       <c r="B263" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C263" t="n">
-        <v>364</v>
+        <v>213</v>
       </c>
       <c r="D263" t="n">
-        <v>4219</v>
+        <v>9808</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>237807</v>
+        <v>206142</v>
       </c>
       <c r="B264" t="n">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="C264" t="n">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="D264" t="n">
-        <v>7164</v>
+        <v>6398</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>237809</v>
+        <v>206143</v>
       </c>
       <c r="B265" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C265" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D265" t="n">
-        <v>4597</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>237900</v>
+        <v>206144</v>
       </c>
       <c r="B266" t="n">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="C266" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D266" t="n">
-        <v>6620</v>
+        <v>7931</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>245051</v>
+        <v>206145</v>
       </c>
       <c r="B267" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C267" t="n">
-        <v>483</v>
+        <v>398</v>
       </c>
       <c r="D267" t="n">
-        <v>8534</v>
+        <v>7778</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>251508</v>
+        <v>216143</v>
       </c>
       <c r="B268" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C268" t="n">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="D268" t="n">
-        <v>6145</v>
+        <v>6137</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>251515</v>
+        <v>227807</v>
       </c>
       <c r="B269" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C269" t="n">
-        <v>281</v>
+        <v>14</v>
       </c>
       <c r="D269" t="n">
-        <v>3882</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>251571</v>
+        <v>227808</v>
       </c>
       <c r="B270" t="n">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C270" t="n">
-        <v>212</v>
+        <v>421</v>
       </c>
       <c r="D270" t="n">
-        <v>7924</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>251864</v>
+        <v>227809</v>
       </c>
       <c r="B271" t="n">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C271" t="n">
-        <v>394</v>
+        <v>194</v>
       </c>
       <c r="D271" t="n">
-        <v>9399</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>251865</v>
+        <v>227810</v>
       </c>
       <c r="B272" t="n">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C272" t="n">
-        <v>378</v>
+        <v>136</v>
       </c>
       <c r="D272" t="n">
-        <v>6327</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>252501</v>
+        <v>227811</v>
       </c>
       <c r="B273" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C273" t="n">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="D273" t="n">
-        <v>1282</v>
+        <v>9655</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>252721</v>
+        <v>227812</v>
       </c>
       <c r="B274" t="n">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="C274" t="n">
-        <v>459</v>
+        <v>51</v>
       </c>
       <c r="D274" t="n">
-        <v>8192</v>
+        <v>6977</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>252722</v>
+        <v>227898</v>
       </c>
       <c r="B275" t="n">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C275" t="n">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="D275" t="n">
-        <v>1567</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>252723</v>
+        <v>227899</v>
       </c>
       <c r="B276" t="n">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C276" t="n">
-        <v>328</v>
+        <v>196</v>
       </c>
       <c r="D276" t="n">
-        <v>8997</v>
+        <v>9248</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>252724</v>
+        <v>227900</v>
       </c>
       <c r="B277" t="n">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C277" t="n">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="D277" t="n">
-        <v>7704</v>
+        <v>6246</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>252725</v>
+        <v>234151</v>
       </c>
       <c r="B278" t="n">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="C278" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="D278" t="n">
-        <v>9161</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>252726</v>
+        <v>237807</v>
       </c>
       <c r="B279" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C279" t="n">
-        <v>426</v>
+        <v>289</v>
       </c>
       <c r="D279" t="n">
-        <v>7737</v>
+        <v>204</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>252729</v>
+        <v>237809</v>
       </c>
       <c r="B280" t="n">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C280" t="n">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="D280" t="n">
-        <v>6836</v>
+        <v>9587</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>252730</v>
+        <v>237900</v>
       </c>
       <c r="B281" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C281" t="n">
-        <v>294</v>
+        <v>6</v>
       </c>
       <c r="D281" t="n">
-        <v>4796</v>
+        <v>9695</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>252731</v>
+        <v>245051</v>
       </c>
       <c r="B282" t="n">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C282" t="n">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="D282" t="n">
-        <v>3606</v>
+        <v>8816</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>252732</v>
+        <v>251508</v>
       </c>
       <c r="B283" t="n">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C283" t="n">
-        <v>55</v>
+        <v>363</v>
       </c>
       <c r="D283" t="n">
-        <v>4136</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>252733</v>
+        <v>251515</v>
       </c>
       <c r="B284" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="D284" t="n">
-        <v>3648</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>252734</v>
+        <v>251571</v>
       </c>
       <c r="B285" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C285" t="n">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="D285" t="n">
-        <v>8928</v>
+        <v>706</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>252737</v>
+        <v>251864</v>
       </c>
       <c r="B286" t="n">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C286" t="n">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="D286" t="n">
-        <v>8248</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>252738</v>
+        <v>251865</v>
       </c>
       <c r="B287" t="n">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C287" t="n">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="D287" t="n">
-        <v>6043</v>
+        <v>8267</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>252741</v>
+        <v>252501</v>
       </c>
       <c r="B288" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C288" t="n">
-        <v>244</v>
+        <v>308</v>
       </c>
       <c r="D288" t="n">
-        <v>3271</v>
+        <v>844</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>252742</v>
+        <v>252721</v>
       </c>
       <c r="B289" t="n">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C289" t="n">
-        <v>423</v>
+        <v>43</v>
       </c>
       <c r="D289" t="n">
-        <v>3700</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>252743</v>
+        <v>252722</v>
       </c>
       <c r="B290" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>149</v>
+        <v>485</v>
       </c>
       <c r="D290" t="n">
-        <v>2064</v>
+        <v>8183</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>252779</v>
+        <v>252723</v>
       </c>
       <c r="B291" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C291" t="n">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="D291" t="n">
-        <v>6904</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>252908</v>
+        <v>252724</v>
       </c>
       <c r="B292" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C292" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="D292" t="n">
-        <v>1510</v>
+        <v>8857</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>252909</v>
+        <v>252725</v>
       </c>
       <c r="B293" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C293" t="n">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="D293" t="n">
-        <v>7108</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>252910</v>
+        <v>252726</v>
       </c>
       <c r="B294" t="n">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="C294" t="n">
-        <v>342</v>
+        <v>86</v>
       </c>
       <c r="D294" t="n">
-        <v>6292</v>
+        <v>7514</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>252911</v>
+        <v>252729</v>
       </c>
       <c r="B295" t="n">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="D295" t="n">
-        <v>4917</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>252912</v>
+        <v>252730</v>
       </c>
       <c r="B296" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="C296" t="n">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="D296" t="n">
-        <v>2992</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>252915</v>
+        <v>252731</v>
       </c>
       <c r="B297" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C297" t="n">
-        <v>239</v>
+        <v>116</v>
       </c>
       <c r="D297" t="n">
-        <v>3145</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>252916</v>
+        <v>252732</v>
       </c>
       <c r="B298" t="n">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="C298" t="n">
-        <v>487</v>
+        <v>240</v>
       </c>
       <c r="D298" t="n">
-        <v>6455</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>252918</v>
+        <v>252733</v>
       </c>
       <c r="B299" t="n">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C299" t="n">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="D299" t="n">
-        <v>1586</v>
+        <v>6176</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>255312</v>
+        <v>252734</v>
       </c>
       <c r="B300" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C300" t="n">
-        <v>347</v>
+        <v>58</v>
       </c>
       <c r="D300" t="n">
-        <v>3304</v>
+        <v>6438</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>256932</v>
+        <v>252737</v>
       </c>
       <c r="B301" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C301" t="n">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="D301" t="n">
-        <v>8734</v>
+        <v>9574</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>262721</v>
+        <v>252738</v>
       </c>
       <c r="B302" t="n">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C302" t="n">
-        <v>342</v>
+        <v>164</v>
       </c>
       <c r="D302" t="n">
-        <v>7369</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>262723</v>
+        <v>252741</v>
       </c>
       <c r="B303" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C303" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D303" t="n">
-        <v>6953</v>
+        <v>876</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>262732</v>
+        <v>252742</v>
       </c>
       <c r="B304" t="n">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C304" t="n">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="D304" t="n">
-        <v>3530</v>
+        <v>9658</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>262737</v>
+        <v>252743</v>
       </c>
       <c r="B305" t="n">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="C305" t="n">
-        <v>13</v>
+        <v>348</v>
       </c>
       <c r="D305" t="n">
-        <v>8267</v>
+        <v>8415</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>262743</v>
+        <v>252779</v>
       </c>
       <c r="B306" t="n">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C306" t="n">
-        <v>423</v>
+        <v>490</v>
       </c>
       <c r="D306" t="n">
-        <v>2848</v>
+        <v>9781</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>262915</v>
+        <v>252908</v>
       </c>
       <c r="B307" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C307" t="n">
-        <v>298</v>
+        <v>38</v>
       </c>
       <c r="D307" t="n">
-        <v>9847</v>
+        <v>880</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>267451</v>
+        <v>252909</v>
       </c>
       <c r="B308" t="n">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="C308" t="n">
-        <v>162</v>
+        <v>373</v>
       </c>
       <c r="D308" t="n">
-        <v>9785</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>267452</v>
+        <v>252910</v>
       </c>
       <c r="B309" t="n">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C309" t="n">
-        <v>333</v>
+        <v>401</v>
       </c>
       <c r="D309" t="n">
-        <v>2649</v>
+        <v>9344</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
+        <v>252911</v>
+      </c>
+      <c r="B310" t="n">
+        <v>9</v>
+      </c>
+      <c r="C310" t="n">
+        <v>76</v>
+      </c>
+      <c r="D310" t="n">
+        <v>7235</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>252912</v>
+      </c>
+      <c r="B311" t="n">
+        <v>86</v>
+      </c>
+      <c r="C311" t="n">
+        <v>271</v>
+      </c>
+      <c r="D311" t="n">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>252915</v>
+      </c>
+      <c r="B312" t="n">
+        <v>84</v>
+      </c>
+      <c r="C312" t="n">
+        <v>402</v>
+      </c>
+      <c r="D312" t="n">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>252916</v>
+      </c>
+      <c r="B313" t="n">
+        <v>81</v>
+      </c>
+      <c r="C313" t="n">
+        <v>163</v>
+      </c>
+      <c r="D313" t="n">
+        <v>9923</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>252918</v>
+      </c>
+      <c r="B314" t="n">
+        <v>35</v>
+      </c>
+      <c r="C314" t="n">
+        <v>68</v>
+      </c>
+      <c r="D314" t="n">
+        <v>9979</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>255312</v>
+      </c>
+      <c r="B315" t="n">
+        <v>49</v>
+      </c>
+      <c r="C315" t="n">
+        <v>28</v>
+      </c>
+      <c r="D315" t="n">
+        <v>6688</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>256932</v>
+      </c>
+      <c r="B316" t="n">
+        <v>17</v>
+      </c>
+      <c r="C316" t="n">
+        <v>133</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>261515</v>
+      </c>
+      <c r="B317" t="n">
+        <v>44</v>
+      </c>
+      <c r="C317" t="n">
+        <v>416</v>
+      </c>
+      <c r="D317" t="n">
+        <v>5057</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>262721</v>
+      </c>
+      <c r="B318" t="n">
+        <v>2</v>
+      </c>
+      <c r="C318" t="n">
+        <v>324</v>
+      </c>
+      <c r="D318" t="n">
+        <v>9701</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>262723</v>
+      </c>
+      <c r="B319" t="n">
+        <v>84</v>
+      </c>
+      <c r="C319" t="n">
+        <v>185</v>
+      </c>
+      <c r="D319" t="n">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>262732</v>
+      </c>
+      <c r="B320" t="n">
+        <v>61</v>
+      </c>
+      <c r="C320" t="n">
+        <v>457</v>
+      </c>
+      <c r="D320" t="n">
+        <v>5853</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>262737</v>
+      </c>
+      <c r="B321" t="n">
+        <v>21</v>
+      </c>
+      <c r="C321" t="n">
+        <v>487</v>
+      </c>
+      <c r="D321" t="n">
+        <v>5456</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>262743</v>
+      </c>
+      <c r="B322" t="n">
+        <v>70</v>
+      </c>
+      <c r="C322" t="n">
+        <v>347</v>
+      </c>
+      <c r="D322" t="n">
+        <v>4901</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>262915</v>
+      </c>
+      <c r="B323" t="n">
+        <v>46</v>
+      </c>
+      <c r="C323" t="n">
+        <v>259</v>
+      </c>
+      <c r="D323" t="n">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>267451</v>
+      </c>
+      <c r="B324" t="n">
+        <v>70</v>
+      </c>
+      <c r="C324" t="n">
+        <v>239</v>
+      </c>
+      <c r="D324" t="n">
+        <v>4879</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>267452</v>
+      </c>
+      <c r="B325" t="n">
+        <v>79</v>
+      </c>
+      <c r="C325" t="n">
+        <v>29</v>
+      </c>
+      <c r="D325" t="n">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
         <v>268346</v>
       </c>
-      <c r="B310" t="n">
-        <v>22</v>
-      </c>
-      <c r="C310" t="n">
-        <v>242</v>
-      </c>
-      <c r="D310" t="n">
-        <v>5879</v>
+      <c r="B326" t="n">
+        <v>75</v>
+      </c>
+      <c r="C326" t="n">
+        <v>350</v>
+      </c>
+      <c r="D326" t="n">
+        <v>7257</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>277451</v>
+      </c>
+      <c r="B327" t="n">
+        <v>61</v>
+      </c>
+      <c r="C327" t="n">
+        <v>351</v>
+      </c>
+      <c r="D327" t="n">
+        <v>3706</v>
       </c>
     </row>
   </sheetData>
